--- a/深圳历年中考成绩.xlsx
+++ b/深圳历年中考成绩.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\szpugaozhiyuantianbao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A44E22F3-5ED5-4FCD-9C3B-F54581C99011}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E396D4D2-50F5-4041-B70B-0FA45D70700D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{405A8031-359D-2441-BD81-E3B6C8BCCE03}"/>
   </bookViews>
@@ -16,6 +16,7 @@
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="2" r:id="rId3"/>
+    <sheet name="Sheet1 (2)" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="771" uniqueCount="535">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="536">
   <si>
     <t>深圳中学</t>
   </si>
@@ -1826,6 +1827,10 @@
   </si>
   <si>
     <t>num</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳实验学校高中园崇文高中</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
 </sst>
@@ -2259,8 +2264,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A736B60-A2D5-FA44-B3DC-4BEE59BC2568}">
   <dimension ref="A1:G129"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:G129"/>
+    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3168,19 +3173,13 @@
         <v>39</v>
       </c>
       <c r="B40" t="s">
-        <v>315</v>
+        <v>21</v>
       </c>
       <c r="C40">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="D40">
-        <v>521</v>
-      </c>
-      <c r="E40">
-        <v>503</v>
-      </c>
-      <c r="F40">
-        <v>527</v>
+        <v>518</v>
       </c>
       <c r="G40" t="s">
         <v>390</v>
@@ -3191,13 +3190,13 @@
         <v>40</v>
       </c>
       <c r="B41" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C41">
-        <v>508</v>
+        <v>515</v>
       </c>
       <c r="D41">
-        <v>505</v>
+        <v>518</v>
       </c>
       <c r="G41" t="s">
         <v>390</v>
@@ -3207,20 +3206,14 @@
       <c r="A42">
         <v>41</v>
       </c>
-      <c r="B42" t="s">
-        <v>22</v>
+      <c r="B42" s="1" t="s">
+        <v>26</v>
       </c>
       <c r="C42">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="D42">
-        <v>511</v>
-      </c>
-      <c r="E42">
-        <v>497</v>
-      </c>
-      <c r="F42">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="G42" t="s">
         <v>390</v>
@@ -3231,13 +3224,13 @@
         <v>42</v>
       </c>
       <c r="B43" t="s">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="C43">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="D43">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="G43" t="s">
         <v>390</v>
@@ -3248,19 +3241,13 @@
         <v>43</v>
       </c>
       <c r="B44" t="s">
-        <v>24</v>
+        <v>37</v>
       </c>
       <c r="C44">
-        <v>506</v>
+        <v>515</v>
       </c>
       <c r="D44">
-        <v>510</v>
-      </c>
-      <c r="E44">
-        <v>488</v>
-      </c>
-      <c r="F44">
-        <v>521</v>
+        <v>518</v>
       </c>
       <c r="G44" t="s">
         <v>390</v>
@@ -3271,13 +3258,13 @@
         <v>44</v>
       </c>
       <c r="B45" t="s">
-        <v>25</v>
+        <v>47</v>
       </c>
       <c r="C45">
-        <v>505</v>
+        <v>515</v>
       </c>
       <c r="D45">
-        <v>522</v>
+        <v>518</v>
       </c>
       <c r="G45" t="s">
         <v>390</v>
@@ -3288,19 +3275,13 @@
         <v>45</v>
       </c>
       <c r="B46" t="s">
-        <v>323</v>
+        <v>48</v>
       </c>
       <c r="C46">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="D46">
-        <v>509</v>
-      </c>
-      <c r="E46">
-        <v>494</v>
-      </c>
-      <c r="F46">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="G46" t="s">
         <v>390</v>
@@ -3311,19 +3292,13 @@
         <v>46</v>
       </c>
       <c r="B47" t="s">
-        <v>336</v>
+        <v>49</v>
       </c>
       <c r="C47">
-        <v>497</v>
+        <v>515</v>
       </c>
       <c r="D47">
-        <v>497</v>
-      </c>
-      <c r="E47">
-        <v>512</v>
-      </c>
-      <c r="F47">
-        <v>512</v>
+        <v>518</v>
       </c>
       <c r="G47" t="s">
         <v>390</v>
@@ -3334,19 +3309,19 @@
         <v>47</v>
       </c>
       <c r="B48" t="s">
-        <v>322</v>
+        <v>315</v>
       </c>
       <c r="C48">
-        <v>495</v>
+        <v>514</v>
       </c>
       <c r="D48">
-        <v>495</v>
+        <v>521</v>
       </c>
       <c r="E48">
-        <v>508</v>
+        <v>503</v>
       </c>
       <c r="F48">
-        <v>508</v>
+        <v>527</v>
       </c>
       <c r="G48" t="s">
         <v>390</v>
@@ -3357,13 +3332,19 @@
         <v>48</v>
       </c>
       <c r="B49" t="s">
-        <v>351</v>
+        <v>22</v>
       </c>
       <c r="C49">
-        <v>495</v>
+        <v>507</v>
       </c>
       <c r="D49">
-        <v>523</v>
+        <v>511</v>
+      </c>
+      <c r="E49">
+        <v>497</v>
+      </c>
+      <c r="F49">
+        <v>524</v>
       </c>
       <c r="G49" t="s">
         <v>390</v>
@@ -3373,14 +3354,20 @@
       <c r="A50">
         <v>49</v>
       </c>
-      <c r="B50" s="1" t="s">
-        <v>26</v>
+      <c r="B50" t="s">
+        <v>24</v>
       </c>
       <c r="C50">
-        <v>494</v>
+        <v>506</v>
       </c>
       <c r="D50">
-        <v>513</v>
+        <v>510</v>
+      </c>
+      <c r="E50">
+        <v>488</v>
+      </c>
+      <c r="F50">
+        <v>521</v>
       </c>
       <c r="G50" t="s">
         <v>390</v>
@@ -3391,19 +3378,13 @@
         <v>50</v>
       </c>
       <c r="B51" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="C51">
-        <v>492</v>
+        <v>505</v>
       </c>
       <c r="D51">
-        <v>508</v>
-      </c>
-      <c r="E51">
-        <v>479</v>
-      </c>
-      <c r="F51">
-        <v>520</v>
+        <v>522</v>
       </c>
       <c r="G51" t="s">
         <v>390</v>
@@ -3414,19 +3395,19 @@
         <v>51</v>
       </c>
       <c r="B52" t="s">
-        <v>320</v>
+        <v>323</v>
       </c>
       <c r="C52">
-        <v>489</v>
+        <v>500</v>
       </c>
       <c r="D52">
-        <v>516</v>
+        <v>509</v>
       </c>
       <c r="E52">
-        <v>484</v>
+        <v>494</v>
       </c>
       <c r="F52">
-        <v>523</v>
+        <v>519</v>
       </c>
       <c r="G52" t="s">
         <v>390</v>
@@ -3437,19 +3418,19 @@
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>28</v>
+        <v>336</v>
       </c>
       <c r="C53">
-        <v>488</v>
+        <v>497</v>
       </c>
       <c r="D53">
-        <v>517</v>
+        <v>497</v>
       </c>
       <c r="E53">
-        <v>494</v>
+        <v>512</v>
       </c>
       <c r="F53">
-        <v>527</v>
+        <v>512</v>
       </c>
       <c r="G53" t="s">
         <v>390</v>
@@ -3460,19 +3441,19 @@
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>29</v>
+        <v>322</v>
       </c>
       <c r="C54">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="D54">
-        <v>522</v>
+        <v>495</v>
       </c>
       <c r="E54">
-        <v>485</v>
+        <v>508</v>
       </c>
       <c r="F54">
-        <v>526</v>
+        <v>508</v>
       </c>
       <c r="G54" t="s">
         <v>390</v>
@@ -3483,13 +3464,13 @@
         <v>54</v>
       </c>
       <c r="B55" t="s">
-        <v>30</v>
+        <v>351</v>
       </c>
       <c r="C55">
-        <v>485</v>
+        <v>495</v>
       </c>
       <c r="D55">
-        <v>485</v>
+        <v>523</v>
       </c>
       <c r="G55" t="s">
         <v>390</v>
@@ -3500,13 +3481,19 @@
         <v>55</v>
       </c>
       <c r="B56" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C56">
-        <v>480</v>
+        <v>492</v>
       </c>
       <c r="D56">
-        <v>502</v>
+        <v>508</v>
+      </c>
+      <c r="E56">
+        <v>479</v>
+      </c>
+      <c r="F56">
+        <v>520</v>
       </c>
       <c r="G56" t="s">
         <v>390</v>
@@ -3517,13 +3504,19 @@
         <v>56</v>
       </c>
       <c r="B57" t="s">
-        <v>32</v>
+        <v>320</v>
       </c>
       <c r="C57">
-        <v>478</v>
+        <v>489</v>
       </c>
       <c r="D57">
         <v>516</v>
+      </c>
+      <c r="E57">
+        <v>484</v>
+      </c>
+      <c r="F57">
+        <v>523</v>
       </c>
       <c r="G57" t="s">
         <v>390</v>
@@ -3534,19 +3527,19 @@
         <v>57</v>
       </c>
       <c r="B58" t="s">
-        <v>296</v>
+        <v>28</v>
       </c>
       <c r="C58">
-        <v>476</v>
+        <v>488</v>
       </c>
       <c r="D58">
-        <v>513</v>
+        <v>517</v>
       </c>
       <c r="E58">
-        <v>479</v>
+        <v>494</v>
       </c>
       <c r="F58">
-        <v>524</v>
+        <v>527</v>
       </c>
       <c r="G58" t="s">
         <v>390</v>
@@ -3557,19 +3550,19 @@
         <v>58</v>
       </c>
       <c r="B59" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C59">
-        <v>475</v>
+        <v>485</v>
       </c>
       <c r="D59">
-        <v>508</v>
+        <v>522</v>
       </c>
       <c r="E59">
-        <v>482</v>
+        <v>485</v>
       </c>
       <c r="F59">
-        <v>522</v>
+        <v>526</v>
       </c>
       <c r="G59" t="s">
         <v>390</v>
@@ -3580,19 +3573,13 @@
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C60">
-        <v>472</v>
+        <v>485</v>
       </c>
       <c r="D60">
-        <v>506</v>
-      </c>
-      <c r="E60">
-        <v>475</v>
-      </c>
-      <c r="F60">
-        <v>521</v>
+        <v>485</v>
       </c>
       <c r="G60" t="s">
         <v>390</v>
@@ -3602,20 +3589,17 @@
       <c r="A61">
         <v>60</v>
       </c>
-      <c r="B61" s="6" t="s">
-        <v>333</v>
+      <c r="B61" t="s">
+        <v>32</v>
       </c>
       <c r="C61">
-        <v>471</v>
+        <v>478</v>
       </c>
       <c r="D61">
-        <v>471</v>
-      </c>
-      <c r="E61">
-        <v>491</v>
+        <v>516</v>
       </c>
       <c r="G61" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="62" spans="1:7" x14ac:dyDescent="0.3">
@@ -3623,19 +3607,19 @@
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>35</v>
+        <v>296</v>
       </c>
       <c r="C62">
-        <v>469</v>
+        <v>476</v>
       </c>
       <c r="D62">
-        <v>506</v>
+        <v>513</v>
       </c>
       <c r="E62">
-        <v>466</v>
+        <v>479</v>
       </c>
       <c r="F62">
-        <v>518</v>
+        <v>524</v>
       </c>
       <c r="G62" t="s">
         <v>390</v>
@@ -3645,20 +3629,23 @@
       <c r="A63">
         <v>62</v>
       </c>
-      <c r="B63" s="6" t="s">
-        <v>325</v>
+      <c r="B63" t="s">
+        <v>33</v>
       </c>
       <c r="C63">
-        <v>469</v>
+        <v>475</v>
       </c>
       <c r="D63">
-        <v>469</v>
+        <v>508</v>
       </c>
       <c r="E63">
-        <v>483</v>
+        <v>482</v>
+      </c>
+      <c r="F63">
+        <v>522</v>
       </c>
       <c r="G63" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="64" spans="1:7" x14ac:dyDescent="0.3">
@@ -3666,13 +3653,19 @@
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="C64">
-        <v>466</v>
+        <v>472</v>
       </c>
       <c r="D64">
-        <v>507</v>
+        <v>506</v>
+      </c>
+      <c r="E64">
+        <v>475</v>
+      </c>
+      <c r="F64">
+        <v>521</v>
       </c>
       <c r="G64" t="s">
         <v>390</v>
@@ -3683,16 +3676,16 @@
         <v>64</v>
       </c>
       <c r="B65" s="6" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="C65">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="D65">
-        <v>463</v>
+        <v>471</v>
       </c>
       <c r="E65">
-        <v>485</v>
+        <v>491</v>
       </c>
       <c r="G65" t="s">
         <v>389</v>
@@ -3703,13 +3696,19 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>364</v>
+        <v>35</v>
       </c>
       <c r="C66">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="D66">
-        <v>499</v>
+        <v>506</v>
+      </c>
+      <c r="E66">
+        <v>466</v>
+      </c>
+      <c r="F66">
+        <v>518</v>
       </c>
       <c r="G66" t="s">
         <v>390</v>
@@ -3719,17 +3718,20 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" t="s">
-        <v>37</v>
+      <c r="B67" s="6" t="s">
+        <v>325</v>
       </c>
       <c r="C67">
-        <v>461</v>
+        <v>469</v>
       </c>
       <c r="D67">
-        <v>488</v>
+        <v>469</v>
+      </c>
+      <c r="E67">
+        <v>483</v>
       </c>
       <c r="G67" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -3737,13 +3739,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>372</v>
+        <v>36</v>
       </c>
       <c r="C68">
-        <v>458</v>
+        <v>466</v>
       </c>
       <c r="D68">
-        <v>506</v>
+        <v>507</v>
       </c>
       <c r="G68" t="s">
         <v>390</v>
@@ -3753,43 +3755,37 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" t="s">
-        <v>38</v>
+      <c r="B69" s="6" t="s">
+        <v>335</v>
       </c>
       <c r="C69">
-        <v>457</v>
+        <v>463</v>
       </c>
       <c r="D69">
-        <v>503</v>
+        <v>463</v>
       </c>
       <c r="E69">
-        <v>460</v>
-      </c>
-      <c r="F69">
-        <v>515</v>
+        <v>485</v>
       </c>
       <c r="G69" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A70">
         <v>69</v>
       </c>
-      <c r="B70" s="6" t="s">
-        <v>54</v>
+      <c r="B70" t="s">
+        <v>364</v>
       </c>
       <c r="C70">
-        <v>455</v>
+        <v>461</v>
       </c>
       <c r="D70">
-        <v>455</v>
-      </c>
-      <c r="E70">
-        <v>457</v>
+        <v>499</v>
       </c>
       <c r="G70" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.3">
@@ -3797,19 +3793,13 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>39</v>
+        <v>372</v>
       </c>
       <c r="C71">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="D71">
-        <v>499</v>
-      </c>
-      <c r="E71">
-        <v>463</v>
-      </c>
-      <c r="F71">
-        <v>513</v>
+        <v>506</v>
       </c>
       <c r="G71" t="s">
         <v>390</v>
@@ -3820,16 +3810,16 @@
         <v>71</v>
       </c>
       <c r="B72" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="C72">
-        <v>452</v>
+        <v>457</v>
       </c>
       <c r="D72">
-        <v>502</v>
+        <v>503</v>
       </c>
       <c r="E72">
-        <v>458</v>
+        <v>460</v>
       </c>
       <c r="F72">
         <v>515</v>
@@ -3842,23 +3832,20 @@
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" t="s">
-        <v>41</v>
+      <c r="B73" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="C73">
-        <v>451</v>
+        <v>455</v>
       </c>
       <c r="D73">
-        <v>503</v>
+        <v>455</v>
       </c>
       <c r="E73">
         <v>457</v>
       </c>
-      <c r="F73">
-        <v>515</v>
-      </c>
       <c r="G73" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
@@ -3866,13 +3853,19 @@
         <v>73</v>
       </c>
       <c r="B74" t="s">
-        <v>42</v>
+        <v>39</v>
       </c>
       <c r="C74">
-        <v>450</v>
+        <v>453</v>
       </c>
       <c r="D74">
-        <v>504</v>
+        <v>499</v>
+      </c>
+      <c r="E74">
+        <v>463</v>
+      </c>
+      <c r="F74">
+        <v>513</v>
       </c>
       <c r="G74" t="s">
         <v>390</v>
@@ -3883,19 +3876,19 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>43</v>
+        <v>40</v>
       </c>
       <c r="C75">
-        <v>449</v>
+        <v>452</v>
       </c>
       <c r="D75">
         <v>502</v>
       </c>
       <c r="E75">
-        <v>456</v>
+        <v>458</v>
       </c>
       <c r="F75">
-        <v>514</v>
+        <v>515</v>
       </c>
       <c r="G75" t="s">
         <v>390</v>
@@ -3906,16 +3899,16 @@
         <v>75</v>
       </c>
       <c r="B76" t="s">
-        <v>44</v>
+        <v>41</v>
       </c>
       <c r="C76">
-        <v>449</v>
+        <v>451</v>
       </c>
       <c r="D76">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E76">
-        <v>454</v>
+        <v>457</v>
       </c>
       <c r="F76">
         <v>515</v>
@@ -3929,19 +3922,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="C77">
-        <v>447</v>
+        <v>450</v>
       </c>
       <c r="D77">
-        <v>496</v>
-      </c>
-      <c r="E77">
-        <v>453</v>
-      </c>
-      <c r="F77">
-        <v>520</v>
+        <v>504</v>
       </c>
       <c r="G77" t="s">
         <v>390</v>
@@ -3952,13 +3939,19 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>329</v>
+        <v>43</v>
       </c>
       <c r="C78">
-        <v>447</v>
+        <v>449</v>
       </c>
       <c r="D78">
-        <v>447</v>
+        <v>502</v>
+      </c>
+      <c r="E78">
+        <v>456</v>
+      </c>
+      <c r="F78">
+        <v>514</v>
       </c>
       <c r="G78" t="s">
         <v>390</v>
@@ -3969,19 +3962,19 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>361</v>
+        <v>44</v>
       </c>
       <c r="C79">
-        <v>446</v>
+        <v>449</v>
       </c>
       <c r="D79">
-        <v>496</v>
+        <v>501</v>
       </c>
       <c r="E79">
-        <v>453</v>
+        <v>454</v>
       </c>
       <c r="F79">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="G79" t="s">
         <v>390</v>
@@ -3992,19 +3985,19 @@
         <v>79</v>
       </c>
       <c r="B80" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C80">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="D80">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="E80">
-        <v>443</v>
+        <v>453</v>
       </c>
       <c r="F80">
-        <v>507</v>
+        <v>520</v>
       </c>
       <c r="G80" t="s">
         <v>390</v>
@@ -4014,20 +4007,17 @@
       <c r="A81">
         <v>80</v>
       </c>
-      <c r="B81" s="6" t="s">
-        <v>341</v>
+      <c r="B81" t="s">
+        <v>329</v>
       </c>
       <c r="C81">
-        <v>442</v>
+        <v>447</v>
       </c>
       <c r="D81">
-        <v>442</v>
-      </c>
-      <c r="E81">
-        <v>441</v>
+        <v>447</v>
       </c>
       <c r="G81" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.3">
@@ -4035,13 +4025,19 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>382</v>
+        <v>361</v>
       </c>
       <c r="C82">
-        <v>438</v>
+        <v>446</v>
       </c>
       <c r="D82">
-        <v>491</v>
+        <v>496</v>
+      </c>
+      <c r="E82">
+        <v>453</v>
+      </c>
+      <c r="F82">
+        <v>511</v>
       </c>
       <c r="G82" t="s">
         <v>390</v>
@@ -4052,19 +4048,19 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>328</v>
+        <v>46</v>
       </c>
       <c r="C83">
-        <v>423</v>
+        <v>442</v>
       </c>
       <c r="D83">
-        <v>500</v>
+        <v>497</v>
       </c>
       <c r="E83">
-        <v>500</v>
+        <v>443</v>
       </c>
       <c r="F83">
-        <v>500</v>
+        <v>507</v>
       </c>
       <c r="G83" t="s">
         <v>390</v>
@@ -4074,17 +4070,17 @@
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" t="s">
-        <v>342</v>
+      <c r="B84" s="6" t="s">
+        <v>341</v>
       </c>
       <c r="C84">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="D84">
-        <v>422</v>
+        <v>442</v>
       </c>
       <c r="E84">
-        <v>460</v>
+        <v>441</v>
       </c>
       <c r="G84" t="s">
         <v>389</v>
@@ -4095,19 +4091,16 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>344</v>
+        <v>382</v>
       </c>
       <c r="C85">
-        <v>422</v>
+        <v>438</v>
       </c>
       <c r="D85">
-        <v>422</v>
-      </c>
-      <c r="E85">
-        <v>414</v>
+        <v>491</v>
       </c>
       <c r="G85" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.3">
@@ -4115,19 +4108,22 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>388</v>
+        <v>328</v>
       </c>
       <c r="C86">
-        <v>419</v>
+        <v>423</v>
       </c>
       <c r="D86">
-        <v>419</v>
+        <v>500</v>
       </c>
       <c r="E86">
-        <v>439</v>
+        <v>500</v>
+      </c>
+      <c r="F86">
+        <v>500</v>
       </c>
       <c r="G86" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.3">
@@ -4135,16 +4131,16 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>324</v>
+        <v>342</v>
       </c>
       <c r="C87">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="D87">
-        <v>417</v>
+        <v>422</v>
       </c>
       <c r="E87">
-        <v>451</v>
+        <v>460</v>
       </c>
       <c r="G87" t="s">
         <v>389</v>
@@ -4155,16 +4151,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>348</v>
+        <v>344</v>
       </c>
       <c r="C88">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="D88">
-        <v>416</v>
+        <v>422</v>
       </c>
       <c r="E88">
-        <v>417</v>
+        <v>414</v>
       </c>
       <c r="G88" t="s">
         <v>389</v>
@@ -4175,16 +4171,16 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>337</v>
+        <v>388</v>
       </c>
       <c r="C89">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="D89">
-        <v>409</v>
+        <v>419</v>
       </c>
       <c r="E89">
-        <v>428</v>
+        <v>439</v>
       </c>
       <c r="G89" t="s">
         <v>389</v>
@@ -4195,16 +4191,16 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>339</v>
+        <v>324</v>
       </c>
       <c r="C90">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="D90">
-        <v>406</v>
+        <v>417</v>
       </c>
       <c r="E90">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="G90" t="s">
         <v>389</v>
@@ -4215,16 +4211,19 @@
         <v>90</v>
       </c>
       <c r="B91" t="s">
-        <v>47</v>
+        <v>348</v>
       </c>
       <c r="C91">
-        <v>399</v>
+        <v>416</v>
       </c>
       <c r="D91">
-        <v>442</v>
+        <v>416</v>
+      </c>
+      <c r="E91">
+        <v>417</v>
       </c>
       <c r="G91" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.3">
@@ -4232,16 +4231,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>383</v>
+        <v>337</v>
       </c>
       <c r="C92">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="D92">
-        <v>397</v>
+        <v>409</v>
       </c>
       <c r="E92">
-        <v>423</v>
+        <v>428</v>
       </c>
       <c r="G92" t="s">
         <v>389</v>
@@ -4252,16 +4251,16 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>352</v>
+        <v>339</v>
       </c>
       <c r="C93">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="D93">
-        <v>393</v>
+        <v>406</v>
       </c>
       <c r="E93">
-        <v>431</v>
+        <v>457</v>
       </c>
       <c r="G93" t="s">
         <v>389</v>
@@ -4272,16 +4271,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>358</v>
+        <v>383</v>
       </c>
       <c r="C94">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="D94">
-        <v>393</v>
+        <v>397</v>
       </c>
       <c r="E94">
-        <v>394</v>
+        <v>423</v>
       </c>
       <c r="G94" t="s">
         <v>389</v>
@@ -4292,16 +4291,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>366</v>
+        <v>352</v>
       </c>
       <c r="C95">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="D95">
-        <v>392</v>
+        <v>393</v>
       </c>
       <c r="E95">
-        <v>379</v>
+        <v>431</v>
       </c>
       <c r="G95" t="s">
         <v>389</v>
@@ -4312,16 +4311,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>346</v>
+        <v>358</v>
       </c>
       <c r="C96">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="D96">
-        <v>380</v>
+        <v>393</v>
       </c>
       <c r="E96">
-        <v>429</v>
+        <v>394</v>
       </c>
       <c r="G96" t="s">
         <v>389</v>
@@ -4332,16 +4331,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>326</v>
+        <v>366</v>
       </c>
       <c r="C97">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="D97">
-        <v>366</v>
+        <v>392</v>
       </c>
       <c r="E97">
-        <v>406</v>
+        <v>379</v>
       </c>
       <c r="G97" t="s">
         <v>389</v>
@@ -4352,16 +4351,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="C98">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="D98">
-        <v>362</v>
+        <v>380</v>
       </c>
       <c r="E98">
-        <v>376</v>
+        <v>429</v>
       </c>
       <c r="G98" t="s">
         <v>389</v>
@@ -4372,16 +4371,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>355</v>
+        <v>326</v>
       </c>
       <c r="C99">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="D99">
-        <v>349</v>
+        <v>366</v>
       </c>
       <c r="E99">
-        <v>382</v>
+        <v>406</v>
       </c>
       <c r="G99" t="s">
         <v>389</v>
@@ -4392,16 +4391,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>297</v>
+        <v>347</v>
       </c>
       <c r="C100">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="D100">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="E100">
-        <v>369</v>
+        <v>376</v>
       </c>
       <c r="G100" t="s">
         <v>389</v>
@@ -4412,16 +4411,19 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>48</v>
+        <v>355</v>
       </c>
       <c r="C101">
-        <v>346</v>
+        <v>349</v>
       </c>
       <c r="D101">
-        <v>477</v>
+        <v>349</v>
+      </c>
+      <c r="E101">
+        <v>382</v>
       </c>
       <c r="G101" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="102" spans="1:7" x14ac:dyDescent="0.3">
@@ -4429,16 +4431,19 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>49</v>
+        <v>297</v>
       </c>
       <c r="C102">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D102">
-        <v>452</v>
+        <v>348</v>
+      </c>
+      <c r="E102">
+        <v>369</v>
       </c>
       <c r="G102" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="103" spans="1:7" x14ac:dyDescent="0.3">
@@ -4973,8 +4978,8 @@
       </c>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G131">
-    <sortCondition descending="1" ref="C2:C131"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G129">
+    <sortCondition descending="1" ref="C2:C129"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -11384,4 +11389,1782 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C519E21-8049-4C82-83A8-D56D245627E0}">
+  <dimension ref="A1:G81"/>
+  <sheetViews>
+    <sheetView topLeftCell="A51" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="E61" sqref="E61"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="39.453125" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" customWidth="1"/>
+    <col min="6" max="6" width="18.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G1" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>572</v>
+      </c>
+      <c r="D2">
+        <v>573</v>
+      </c>
+      <c r="E2">
+        <v>576</v>
+      </c>
+      <c r="F2">
+        <v>578</v>
+      </c>
+      <c r="G2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>571</v>
+      </c>
+      <c r="D3">
+        <v>571</v>
+      </c>
+      <c r="E3">
+        <v>573</v>
+      </c>
+      <c r="F3">
+        <v>573</v>
+      </c>
+      <c r="G3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>570</v>
+      </c>
+      <c r="D4">
+        <v>568</v>
+      </c>
+      <c r="E4">
+        <v>570</v>
+      </c>
+      <c r="F4">
+        <v>569</v>
+      </c>
+      <c r="G4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>570</v>
+      </c>
+      <c r="D5">
+        <v>566</v>
+      </c>
+      <c r="E5">
+        <v>568</v>
+      </c>
+      <c r="F5">
+        <v>570</v>
+      </c>
+      <c r="G5" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>566</v>
+      </c>
+      <c r="D6">
+        <v>562</v>
+      </c>
+      <c r="E6">
+        <v>564</v>
+      </c>
+      <c r="F6">
+        <v>566</v>
+      </c>
+      <c r="G6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>564</v>
+      </c>
+      <c r="D7">
+        <v>564</v>
+      </c>
+      <c r="E7">
+        <v>561</v>
+      </c>
+      <c r="F7">
+        <v>566</v>
+      </c>
+      <c r="G7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>563</v>
+      </c>
+      <c r="D8">
+        <v>560</v>
+      </c>
+      <c r="E8">
+        <v>560</v>
+      </c>
+      <c r="F8">
+        <v>562</v>
+      </c>
+      <c r="G8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>332</v>
+      </c>
+      <c r="C9">
+        <v>562</v>
+      </c>
+      <c r="D9">
+        <v>558</v>
+      </c>
+      <c r="E9">
+        <v>558</v>
+      </c>
+      <c r="F9">
+        <v>559</v>
+      </c>
+      <c r="G9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>562</v>
+      </c>
+      <c r="D10">
+        <v>557</v>
+      </c>
+      <c r="E10">
+        <v>557</v>
+      </c>
+      <c r="F10">
+        <v>559</v>
+      </c>
+      <c r="G10" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>559</v>
+      </c>
+      <c r="D11">
+        <v>554</v>
+      </c>
+      <c r="E11">
+        <v>553</v>
+      </c>
+      <c r="F11">
+        <v>557</v>
+      </c>
+      <c r="G11" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>317</v>
+      </c>
+      <c r="C12">
+        <v>558</v>
+      </c>
+      <c r="D12">
+        <v>554</v>
+      </c>
+      <c r="E12">
+        <v>546</v>
+      </c>
+      <c r="F12">
+        <v>552</v>
+      </c>
+      <c r="G12" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>556</v>
+      </c>
+      <c r="D13">
+        <v>550</v>
+      </c>
+      <c r="E13">
+        <v>548</v>
+      </c>
+      <c r="F13">
+        <v>552</v>
+      </c>
+      <c r="G13" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>331</v>
+      </c>
+      <c r="C14">
+        <v>556</v>
+      </c>
+      <c r="D14">
+        <v>550</v>
+      </c>
+      <c r="E14">
+        <v>542</v>
+      </c>
+      <c r="F14">
+        <v>542</v>
+      </c>
+      <c r="G14" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>553</v>
+      </c>
+      <c r="D15">
+        <v>550</v>
+      </c>
+      <c r="E15">
+        <v>539</v>
+      </c>
+      <c r="F15">
+        <v>551</v>
+      </c>
+      <c r="G15" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>552</v>
+      </c>
+      <c r="D16">
+        <v>546</v>
+      </c>
+      <c r="E16">
+        <v>545</v>
+      </c>
+      <c r="F16">
+        <v>553</v>
+      </c>
+      <c r="G16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>314</v>
+      </c>
+      <c r="C17">
+        <v>552</v>
+      </c>
+      <c r="D17">
+        <v>548</v>
+      </c>
+      <c r="E17">
+        <v>540</v>
+      </c>
+      <c r="F17">
+        <v>547</v>
+      </c>
+      <c r="G17" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>312</v>
+      </c>
+      <c r="C18">
+        <v>551</v>
+      </c>
+      <c r="D18">
+        <v>549</v>
+      </c>
+      <c r="E18">
+        <v>531</v>
+      </c>
+      <c r="F18">
+        <v>546</v>
+      </c>
+      <c r="G18" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>549</v>
+      </c>
+      <c r="D19">
+        <v>545</v>
+      </c>
+      <c r="E19">
+        <v>529</v>
+      </c>
+      <c r="F19">
+        <v>538</v>
+      </c>
+      <c r="G19" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>548</v>
+      </c>
+      <c r="D20">
+        <v>545</v>
+      </c>
+      <c r="E20">
+        <v>529</v>
+      </c>
+      <c r="F20">
+        <v>538</v>
+      </c>
+      <c r="G20" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>378</v>
+      </c>
+      <c r="C21">
+        <v>546</v>
+      </c>
+      <c r="D21">
+        <v>546</v>
+      </c>
+      <c r="E21">
+        <v>531</v>
+      </c>
+      <c r="F21">
+        <v>544</v>
+      </c>
+      <c r="G21" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>318</v>
+      </c>
+      <c r="C22">
+        <v>546</v>
+      </c>
+      <c r="D22">
+        <v>543</v>
+      </c>
+      <c r="E22">
+        <v>526</v>
+      </c>
+      <c r="F22">
+        <v>536</v>
+      </c>
+      <c r="G22" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>316</v>
+      </c>
+      <c r="C23">
+        <v>544</v>
+      </c>
+      <c r="D23">
+        <v>540</v>
+      </c>
+      <c r="E23">
+        <v>535</v>
+      </c>
+      <c r="F23">
+        <v>535</v>
+      </c>
+      <c r="G23" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>313</v>
+      </c>
+      <c r="C24">
+        <v>542</v>
+      </c>
+      <c r="D24">
+        <v>534</v>
+      </c>
+      <c r="E24">
+        <v>529</v>
+      </c>
+      <c r="F24">
+        <v>537</v>
+      </c>
+      <c r="G24" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>542</v>
+      </c>
+      <c r="D25">
+        <v>538</v>
+      </c>
+      <c r="E25">
+        <v>524</v>
+      </c>
+      <c r="F25">
+        <v>538</v>
+      </c>
+      <c r="G25" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <v>540</v>
+      </c>
+      <c r="D26">
+        <v>540</v>
+      </c>
+      <c r="E26">
+        <v>529</v>
+      </c>
+      <c r="F26">
+        <v>540</v>
+      </c>
+      <c r="G26" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27">
+        <v>538</v>
+      </c>
+      <c r="D27">
+        <v>533</v>
+      </c>
+      <c r="E27">
+        <v>522</v>
+      </c>
+      <c r="F27">
+        <v>537</v>
+      </c>
+      <c r="G27" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>350</v>
+      </c>
+      <c r="C28">
+        <v>537</v>
+      </c>
+      <c r="D28">
+        <v>536</v>
+      </c>
+      <c r="E28">
+        <v>517</v>
+      </c>
+      <c r="F28">
+        <v>536</v>
+      </c>
+      <c r="G28" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29">
+        <v>536</v>
+      </c>
+      <c r="D29">
+        <v>532</v>
+      </c>
+      <c r="E29">
+        <v>518</v>
+      </c>
+      <c r="F29">
+        <v>535</v>
+      </c>
+      <c r="G29" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30">
+        <v>535</v>
+      </c>
+      <c r="D30">
+        <v>533</v>
+      </c>
+      <c r="E30">
+        <v>513</v>
+      </c>
+      <c r="F30">
+        <v>535</v>
+      </c>
+      <c r="G30" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31">
+        <v>534</v>
+      </c>
+      <c r="D31">
+        <v>526</v>
+      </c>
+      <c r="E31">
+        <v>512</v>
+      </c>
+      <c r="F31">
+        <v>528</v>
+      </c>
+      <c r="G31" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>319</v>
+      </c>
+      <c r="C32">
+        <v>533</v>
+      </c>
+      <c r="D32">
+        <v>530</v>
+      </c>
+      <c r="E32">
+        <v>503</v>
+      </c>
+      <c r="F32">
+        <v>526</v>
+      </c>
+      <c r="G32" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>362</v>
+      </c>
+      <c r="C33">
+        <v>529</v>
+      </c>
+      <c r="D33">
+        <v>533</v>
+      </c>
+      <c r="E33">
+        <v>503</v>
+      </c>
+      <c r="F33">
+        <v>530</v>
+      </c>
+      <c r="G33" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34">
+        <v>529</v>
+      </c>
+      <c r="D34">
+        <v>517</v>
+      </c>
+      <c r="G34" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>381</v>
+      </c>
+      <c r="C35">
+        <v>528</v>
+      </c>
+      <c r="D35">
+        <v>517</v>
+      </c>
+      <c r="E35">
+        <v>503</v>
+      </c>
+      <c r="F35">
+        <v>522</v>
+      </c>
+      <c r="G35" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>327</v>
+      </c>
+      <c r="C36">
+        <v>527</v>
+      </c>
+      <c r="D36">
+        <v>529</v>
+      </c>
+      <c r="E36">
+        <v>509</v>
+      </c>
+      <c r="F36">
+        <v>531</v>
+      </c>
+      <c r="G36" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>321</v>
+      </c>
+      <c r="C37">
+        <v>526</v>
+      </c>
+      <c r="D37">
+        <v>528</v>
+      </c>
+      <c r="E37">
+        <v>485</v>
+      </c>
+      <c r="F37">
+        <v>525</v>
+      </c>
+      <c r="G37" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>377</v>
+      </c>
+      <c r="C38">
+        <v>523</v>
+      </c>
+      <c r="D38">
+        <v>531</v>
+      </c>
+      <c r="E38">
+        <v>496</v>
+      </c>
+      <c r="F38">
+        <v>533</v>
+      </c>
+      <c r="G38" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>363</v>
+      </c>
+      <c r="C39">
+        <v>521</v>
+      </c>
+      <c r="D39">
+        <v>527</v>
+      </c>
+      <c r="E39">
+        <v>496</v>
+      </c>
+      <c r="F39">
+        <v>530</v>
+      </c>
+      <c r="G39" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40">
+        <v>517</v>
+      </c>
+      <c r="D40">
+        <v>522</v>
+      </c>
+      <c r="G40" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41">
+        <v>515</v>
+      </c>
+      <c r="D41">
+        <v>518</v>
+      </c>
+      <c r="G41" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42">
+        <v>515</v>
+      </c>
+      <c r="D42">
+        <v>518</v>
+      </c>
+      <c r="G42" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43">
+        <v>515</v>
+      </c>
+      <c r="D43">
+        <v>518</v>
+      </c>
+      <c r="G43" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="6">
+        <v>515</v>
+      </c>
+      <c r="D44" s="6">
+        <v>518</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45">
+        <v>515</v>
+      </c>
+      <c r="D45">
+        <v>518</v>
+      </c>
+      <c r="G45" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>535</v>
+      </c>
+      <c r="C46">
+        <v>515</v>
+      </c>
+      <c r="D46">
+        <v>518</v>
+      </c>
+      <c r="G46" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47">
+        <v>515</v>
+      </c>
+      <c r="D47">
+        <v>518</v>
+      </c>
+      <c r="G47" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>315</v>
+      </c>
+      <c r="C48">
+        <v>514</v>
+      </c>
+      <c r="D48">
+        <v>521</v>
+      </c>
+      <c r="E48">
+        <v>503</v>
+      </c>
+      <c r="F48">
+        <v>527</v>
+      </c>
+      <c r="G48" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49">
+        <v>507</v>
+      </c>
+      <c r="D49">
+        <v>511</v>
+      </c>
+      <c r="E49">
+        <v>497</v>
+      </c>
+      <c r="F49">
+        <v>524</v>
+      </c>
+      <c r="G49" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50">
+        <v>506</v>
+      </c>
+      <c r="D50">
+        <v>510</v>
+      </c>
+      <c r="E50">
+        <v>488</v>
+      </c>
+      <c r="F50">
+        <v>521</v>
+      </c>
+      <c r="G50" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51">
+        <v>505</v>
+      </c>
+      <c r="D51">
+        <v>522</v>
+      </c>
+      <c r="G51" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>323</v>
+      </c>
+      <c r="C52">
+        <v>500</v>
+      </c>
+      <c r="D52">
+        <v>509</v>
+      </c>
+      <c r="E52">
+        <v>494</v>
+      </c>
+      <c r="F52">
+        <v>519</v>
+      </c>
+      <c r="G52" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>336</v>
+      </c>
+      <c r="C53">
+        <v>497</v>
+      </c>
+      <c r="D53">
+        <v>497</v>
+      </c>
+      <c r="E53">
+        <v>512</v>
+      </c>
+      <c r="F53">
+        <v>512</v>
+      </c>
+      <c r="G53" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>322</v>
+      </c>
+      <c r="C54">
+        <v>495</v>
+      </c>
+      <c r="D54">
+        <v>495</v>
+      </c>
+      <c r="E54">
+        <v>508</v>
+      </c>
+      <c r="F54">
+        <v>508</v>
+      </c>
+      <c r="G54" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" t="s">
+        <v>351</v>
+      </c>
+      <c r="C55">
+        <v>495</v>
+      </c>
+      <c r="D55">
+        <v>523</v>
+      </c>
+      <c r="G55" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" t="s">
+        <v>27</v>
+      </c>
+      <c r="C56">
+        <v>492</v>
+      </c>
+      <c r="D56">
+        <v>508</v>
+      </c>
+      <c r="E56">
+        <v>479</v>
+      </c>
+      <c r="F56">
+        <v>520</v>
+      </c>
+      <c r="G56" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" t="s">
+        <v>320</v>
+      </c>
+      <c r="C57">
+        <v>489</v>
+      </c>
+      <c r="D57">
+        <v>516</v>
+      </c>
+      <c r="E57">
+        <v>484</v>
+      </c>
+      <c r="F57">
+        <v>523</v>
+      </c>
+      <c r="G57" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" t="s">
+        <v>28</v>
+      </c>
+      <c r="C58">
+        <v>488</v>
+      </c>
+      <c r="D58">
+        <v>517</v>
+      </c>
+      <c r="E58">
+        <v>494</v>
+      </c>
+      <c r="F58">
+        <v>527</v>
+      </c>
+      <c r="G58" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59">
+        <v>485</v>
+      </c>
+      <c r="D59">
+        <v>522</v>
+      </c>
+      <c r="E59">
+        <v>485</v>
+      </c>
+      <c r="F59">
+        <v>526</v>
+      </c>
+      <c r="G59" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>30</v>
+      </c>
+      <c r="C60">
+        <v>485</v>
+      </c>
+      <c r="D60">
+        <v>485</v>
+      </c>
+      <c r="G60" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>32</v>
+      </c>
+      <c r="C61">
+        <v>478</v>
+      </c>
+      <c r="D61">
+        <v>516</v>
+      </c>
+      <c r="G61" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>296</v>
+      </c>
+      <c r="C62">
+        <v>476</v>
+      </c>
+      <c r="D62">
+        <v>513</v>
+      </c>
+      <c r="E62">
+        <v>479</v>
+      </c>
+      <c r="F62">
+        <v>524</v>
+      </c>
+      <c r="G62" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>33</v>
+      </c>
+      <c r="C63">
+        <v>475</v>
+      </c>
+      <c r="D63">
+        <v>508</v>
+      </c>
+      <c r="E63">
+        <v>482</v>
+      </c>
+      <c r="F63">
+        <v>522</v>
+      </c>
+      <c r="G63" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>34</v>
+      </c>
+      <c r="C64">
+        <v>472</v>
+      </c>
+      <c r="D64">
+        <v>506</v>
+      </c>
+      <c r="E64">
+        <v>475</v>
+      </c>
+      <c r="F64">
+        <v>521</v>
+      </c>
+      <c r="G64" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>35</v>
+      </c>
+      <c r="C65">
+        <v>469</v>
+      </c>
+      <c r="D65">
+        <v>506</v>
+      </c>
+      <c r="E65">
+        <v>466</v>
+      </c>
+      <c r="F65">
+        <v>518</v>
+      </c>
+      <c r="G65" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>36</v>
+      </c>
+      <c r="C66">
+        <v>466</v>
+      </c>
+      <c r="D66">
+        <v>507</v>
+      </c>
+      <c r="G66" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>364</v>
+      </c>
+      <c r="C67">
+        <v>461</v>
+      </c>
+      <c r="D67">
+        <v>499</v>
+      </c>
+      <c r="G67" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>372</v>
+      </c>
+      <c r="C68">
+        <v>458</v>
+      </c>
+      <c r="D68">
+        <v>506</v>
+      </c>
+      <c r="G68" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>38</v>
+      </c>
+      <c r="C69">
+        <v>457</v>
+      </c>
+      <c r="D69">
+        <v>503</v>
+      </c>
+      <c r="E69">
+        <v>460</v>
+      </c>
+      <c r="F69">
+        <v>515</v>
+      </c>
+      <c r="G69" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>39</v>
+      </c>
+      <c r="C70">
+        <v>453</v>
+      </c>
+      <c r="D70">
+        <v>499</v>
+      </c>
+      <c r="E70">
+        <v>463</v>
+      </c>
+      <c r="F70">
+        <v>513</v>
+      </c>
+      <c r="G70" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>40</v>
+      </c>
+      <c r="C71">
+        <v>452</v>
+      </c>
+      <c r="D71">
+        <v>502</v>
+      </c>
+      <c r="E71">
+        <v>458</v>
+      </c>
+      <c r="F71">
+        <v>515</v>
+      </c>
+      <c r="G71" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>41</v>
+      </c>
+      <c r="C72">
+        <v>451</v>
+      </c>
+      <c r="D72">
+        <v>503</v>
+      </c>
+      <c r="E72">
+        <v>457</v>
+      </c>
+      <c r="F72">
+        <v>515</v>
+      </c>
+      <c r="G72" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>42</v>
+      </c>
+      <c r="C73">
+        <v>450</v>
+      </c>
+      <c r="D73">
+        <v>504</v>
+      </c>
+      <c r="G73" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>43</v>
+      </c>
+      <c r="C74">
+        <v>449</v>
+      </c>
+      <c r="D74">
+        <v>502</v>
+      </c>
+      <c r="E74">
+        <v>456</v>
+      </c>
+      <c r="F74">
+        <v>514</v>
+      </c>
+      <c r="G74" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>44</v>
+      </c>
+      <c r="C75">
+        <v>449</v>
+      </c>
+      <c r="D75">
+        <v>501</v>
+      </c>
+      <c r="E75">
+        <v>454</v>
+      </c>
+      <c r="F75">
+        <v>515</v>
+      </c>
+      <c r="G75" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>45</v>
+      </c>
+      <c r="C76">
+        <v>447</v>
+      </c>
+      <c r="D76">
+        <v>496</v>
+      </c>
+      <c r="E76">
+        <v>453</v>
+      </c>
+      <c r="F76">
+        <v>520</v>
+      </c>
+      <c r="G76" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>329</v>
+      </c>
+      <c r="C77">
+        <v>447</v>
+      </c>
+      <c r="D77">
+        <v>447</v>
+      </c>
+      <c r="G77" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>361</v>
+      </c>
+      <c r="C78">
+        <v>446</v>
+      </c>
+      <c r="D78">
+        <v>496</v>
+      </c>
+      <c r="E78">
+        <v>453</v>
+      </c>
+      <c r="F78">
+        <v>511</v>
+      </c>
+      <c r="G78" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>46</v>
+      </c>
+      <c r="C79">
+        <v>442</v>
+      </c>
+      <c r="D79">
+        <v>497</v>
+      </c>
+      <c r="E79">
+        <v>443</v>
+      </c>
+      <c r="F79">
+        <v>507</v>
+      </c>
+      <c r="G79" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>382</v>
+      </c>
+      <c r="C80">
+        <v>438</v>
+      </c>
+      <c r="D80">
+        <v>491</v>
+      </c>
+      <c r="G80" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>328</v>
+      </c>
+      <c r="C81">
+        <v>423</v>
+      </c>
+      <c r="D81">
+        <v>500</v>
+      </c>
+      <c r="E81">
+        <v>500</v>
+      </c>
+      <c r="F81">
+        <v>500</v>
+      </c>
+      <c r="G81" t="s">
+        <v>390</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G81">
+    <sortCondition descending="1" ref="C2:C81"/>
+  </sortState>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>
--- a/深圳历年中考成绩.xlsx
+++ b/深圳历年中考成绩.xlsx
@@ -8,15 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\github\szpugaozhiyuantianbao\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E396D4D2-50F5-4041-B70B-0FA45D70700D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FEED3C19-492B-4256-AA25-1CC3A5769021}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{405A8031-359D-2441-BD81-E3B6C8BCCE03}"/>
+    <workbookView xWindow="612" yWindow="1944" windowWidth="17280" windowHeight="8964" xr2:uid="{405A8031-359D-2441-BD81-E3B6C8BCCE03}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="3" r:id="rId2"/>
-    <sheet name="Sheet3" sheetId="2" r:id="rId3"/>
-    <sheet name="Sheet1 (2)" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1 (2)" sheetId="4" r:id="rId3"/>
+    <sheet name="Sheet3" sheetId="2" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="536">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="990" uniqueCount="546">
   <si>
     <t>深圳中学</t>
   </si>
@@ -1833,12 +1833,47 @@
     <t>深圳实验学校高中园崇文高中</t>
     <phoneticPr fontId="7" type="noConversion"/>
   </si>
+  <si>
+    <t>code</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳中学数理高中</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>new</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳实验学校至臻高中</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳外国语学校理工高中</t>
+  </si>
+  <si>
+    <t>深圳市高级中学有为高中</t>
+    <phoneticPr fontId="7" type="noConversion"/>
+  </si>
+  <si>
+    <t>深圳市第二实验学校明远高中</t>
+  </si>
+  <si>
+    <t>深圳北理莫斯科大学附属实验中学</t>
+  </si>
+  <si>
+    <t>深圳市红岭教育集团大鹏华侨中学</t>
+  </si>
+  <si>
+    <t>深圳市知源高级中学</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1914,6 +1949,13 @@
       <family val="2"/>
       <charset val="134"/>
     </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="2">
     <fill>
@@ -1936,7 +1978,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1947,6 +1989,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -2262,10 +2305,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0A736B60-A2D5-FA44-B3DC-4BEE59BC2568}">
-  <dimension ref="A1:G129"/>
+  <dimension ref="A1:I137"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A97" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C49" sqref="C49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -2277,7 +2320,7 @@
     <col min="6" max="6" width="18.6328125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>387</v>
       </c>
@@ -2299,8 +2342,14 @@
       <c r="G1" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="H1" t="s">
+        <v>536</v>
+      </c>
+      <c r="I1" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>1</v>
       </c>
@@ -2323,7 +2372,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>2</v>
       </c>
@@ -2346,7 +2395,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>3</v>
       </c>
@@ -2369,7 +2418,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>4</v>
       </c>
@@ -2392,7 +2441,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>5</v>
       </c>
@@ -2415,7 +2464,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>6</v>
       </c>
@@ -2438,7 +2487,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>7</v>
       </c>
@@ -2461,7 +2510,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>8</v>
       </c>
@@ -2484,7 +2533,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>9</v>
       </c>
@@ -2507,7 +2556,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>10</v>
       </c>
@@ -2530,7 +2579,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>11</v>
       </c>
@@ -2553,7 +2602,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>12</v>
       </c>
@@ -2576,7 +2625,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>13</v>
       </c>
@@ -2599,7 +2648,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15">
         <v>14</v>
       </c>
@@ -2622,7 +2671,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16">
         <v>15</v>
       </c>
@@ -3327,7 +3376,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A49">
         <v>48</v>
       </c>
@@ -3350,7 +3399,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A50">
         <v>49</v>
       </c>
@@ -3373,7 +3422,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A51">
         <v>50</v>
       </c>
@@ -3390,7 +3439,7 @@
         <v>390</v>
       </c>
     </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A52">
         <v>51</v>
       </c>
@@ -3413,259 +3462,229 @@
         <v>390</v>
       </c>
     </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A53">
         <v>52</v>
       </c>
       <c r="B53" t="s">
-        <v>336</v>
+        <v>537</v>
       </c>
       <c r="C53">
-        <v>497</v>
-      </c>
-      <c r="D53">
-        <v>497</v>
-      </c>
-      <c r="E53">
-        <v>512</v>
-      </c>
-      <c r="F53">
-        <v>512</v>
+        <v>500</v>
       </c>
       <c r="G53" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I53" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A54">
         <v>53</v>
       </c>
       <c r="B54" t="s">
-        <v>322</v>
+        <v>539</v>
       </c>
       <c r="C54">
-        <v>495</v>
-      </c>
-      <c r="D54">
-        <v>495</v>
-      </c>
-      <c r="E54">
-        <v>508</v>
-      </c>
-      <c r="F54">
-        <v>508</v>
+        <v>500</v>
       </c>
       <c r="G54" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I54" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A55">
         <v>54</v>
       </c>
-      <c r="B55" t="s">
-        <v>351</v>
+      <c r="B55" s="10" t="s">
+        <v>540</v>
       </c>
       <c r="C55">
-        <v>495</v>
-      </c>
-      <c r="D55">
-        <v>523</v>
+        <v>500</v>
       </c>
       <c r="G55" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I55" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A56">
         <v>55</v>
       </c>
-      <c r="B56" t="s">
-        <v>27</v>
+      <c r="B56" s="10" t="s">
+        <v>541</v>
       </c>
       <c r="C56">
-        <v>492</v>
-      </c>
-      <c r="D56">
-        <v>508</v>
-      </c>
-      <c r="E56">
-        <v>479</v>
-      </c>
-      <c r="F56">
-        <v>520</v>
+        <v>500</v>
       </c>
       <c r="G56" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I56" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A57">
         <v>56</v>
       </c>
-      <c r="B57" t="s">
-        <v>320</v>
+      <c r="B57" s="10" t="s">
+        <v>542</v>
       </c>
       <c r="C57">
-        <v>489</v>
-      </c>
-      <c r="D57">
-        <v>516</v>
-      </c>
-      <c r="E57">
-        <v>484</v>
-      </c>
-      <c r="F57">
-        <v>523</v>
+        <v>500</v>
       </c>
       <c r="G57" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I57" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A58">
         <v>57</v>
       </c>
-      <c r="B58" t="s">
-        <v>28</v>
+      <c r="B58" s="10" t="s">
+        <v>543</v>
       </c>
       <c r="C58">
-        <v>488</v>
-      </c>
-      <c r="D58">
-        <v>517</v>
-      </c>
-      <c r="E58">
-        <v>494</v>
-      </c>
-      <c r="F58">
-        <v>527</v>
+        <v>500</v>
       </c>
       <c r="G58" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I58" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="18" x14ac:dyDescent="0.3">
       <c r="A59">
         <v>58</v>
       </c>
-      <c r="B59" t="s">
-        <v>29</v>
+      <c r="B59" s="10" t="s">
+        <v>544</v>
       </c>
       <c r="C59">
-        <v>485</v>
-      </c>
-      <c r="D59">
-        <v>522</v>
-      </c>
-      <c r="E59">
-        <v>485</v>
-      </c>
-      <c r="F59">
-        <v>526</v>
+        <v>500</v>
       </c>
       <c r="G59" t="s">
         <v>390</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="I59" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A60">
         <v>59</v>
       </c>
       <c r="B60" t="s">
-        <v>30</v>
+        <v>336</v>
       </c>
       <c r="C60">
-        <v>485</v>
+        <v>497</v>
       </c>
       <c r="D60">
-        <v>485</v>
+        <v>497</v>
+      </c>
+      <c r="E60">
+        <v>512</v>
+      </c>
+      <c r="F60">
+        <v>512</v>
       </c>
       <c r="G60" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A61">
         <v>60</v>
       </c>
       <c r="B61" t="s">
-        <v>32</v>
+        <v>322</v>
       </c>
       <c r="C61">
-        <v>478</v>
+        <v>495</v>
       </c>
       <c r="D61">
-        <v>516</v>
+        <v>495</v>
+      </c>
+      <c r="E61">
+        <v>508</v>
+      </c>
+      <c r="F61">
+        <v>508</v>
       </c>
       <c r="G61" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A62">
         <v>61</v>
       </c>
       <c r="B62" t="s">
-        <v>296</v>
+        <v>351</v>
       </c>
       <c r="C62">
-        <v>476</v>
+        <v>495</v>
       </c>
       <c r="D62">
-        <v>513</v>
-      </c>
-      <c r="E62">
-        <v>479</v>
-      </c>
-      <c r="F62">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="G62" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A63">
         <v>62</v>
       </c>
       <c r="B63" t="s">
-        <v>33</v>
+        <v>27</v>
       </c>
       <c r="C63">
-        <v>475</v>
+        <v>492</v>
       </c>
       <c r="D63">
         <v>508</v>
       </c>
       <c r="E63">
-        <v>482</v>
+        <v>479</v>
       </c>
       <c r="F63">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="G63" t="s">
         <v>390</v>
       </c>
     </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A64">
         <v>63</v>
       </c>
       <c r="B64" t="s">
-        <v>34</v>
+        <v>320</v>
       </c>
       <c r="C64">
-        <v>472</v>
+        <v>489</v>
       </c>
       <c r="D64">
-        <v>506</v>
+        <v>516</v>
       </c>
       <c r="E64">
-        <v>475</v>
+        <v>484</v>
       </c>
       <c r="F64">
-        <v>521</v>
+        <v>523</v>
       </c>
       <c r="G64" t="s">
         <v>390</v>
@@ -3675,20 +3694,23 @@
       <c r="A65">
         <v>64</v>
       </c>
-      <c r="B65" s="6" t="s">
-        <v>333</v>
+      <c r="B65" t="s">
+        <v>28</v>
       </c>
       <c r="C65">
-        <v>471</v>
+        <v>488</v>
       </c>
       <c r="D65">
-        <v>471</v>
+        <v>517</v>
       </c>
       <c r="E65">
-        <v>491</v>
+        <v>494</v>
+      </c>
+      <c r="F65">
+        <v>527</v>
       </c>
       <c r="G65" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.3">
@@ -3696,19 +3718,19 @@
         <v>65</v>
       </c>
       <c r="B66" t="s">
-        <v>35</v>
+        <v>29</v>
       </c>
       <c r="C66">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="D66">
-        <v>506</v>
+        <v>522</v>
       </c>
       <c r="E66">
-        <v>466</v>
+        <v>485</v>
       </c>
       <c r="F66">
-        <v>518</v>
+        <v>526</v>
       </c>
       <c r="G66" t="s">
         <v>390</v>
@@ -3718,20 +3740,17 @@
       <c r="A67">
         <v>66</v>
       </c>
-      <c r="B67" s="6" t="s">
-        <v>325</v>
+      <c r="B67" t="s">
+        <v>30</v>
       </c>
       <c r="C67">
-        <v>469</v>
+        <v>485</v>
       </c>
       <c r="D67">
-        <v>469</v>
-      </c>
-      <c r="E67">
-        <v>483</v>
+        <v>485</v>
       </c>
       <c r="G67" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.3">
@@ -3739,13 +3758,13 @@
         <v>67</v>
       </c>
       <c r="B68" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C68">
-        <v>466</v>
+        <v>478</v>
       </c>
       <c r="D68">
-        <v>507</v>
+        <v>516</v>
       </c>
       <c r="G68" t="s">
         <v>390</v>
@@ -3755,20 +3774,23 @@
       <c r="A69">
         <v>68</v>
       </c>
-      <c r="B69" s="6" t="s">
-        <v>335</v>
+      <c r="B69" t="s">
+        <v>296</v>
       </c>
       <c r="C69">
-        <v>463</v>
+        <v>476</v>
       </c>
       <c r="D69">
-        <v>463</v>
+        <v>513</v>
       </c>
       <c r="E69">
-        <v>485</v>
+        <v>479</v>
+      </c>
+      <c r="F69">
+        <v>524</v>
       </c>
       <c r="G69" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.3">
@@ -3776,13 +3798,19 @@
         <v>69</v>
       </c>
       <c r="B70" t="s">
-        <v>364</v>
+        <v>33</v>
       </c>
       <c r="C70">
-        <v>461</v>
+        <v>475</v>
       </c>
       <c r="D70">
-        <v>499</v>
+        <v>508</v>
+      </c>
+      <c r="E70">
+        <v>482</v>
+      </c>
+      <c r="F70">
+        <v>522</v>
       </c>
       <c r="G70" t="s">
         <v>390</v>
@@ -3793,13 +3821,19 @@
         <v>70</v>
       </c>
       <c r="B71" t="s">
-        <v>372</v>
+        <v>34</v>
       </c>
       <c r="C71">
-        <v>458</v>
+        <v>472</v>
       </c>
       <c r="D71">
         <v>506</v>
+      </c>
+      <c r="E71">
+        <v>475</v>
+      </c>
+      <c r="F71">
+        <v>521</v>
       </c>
       <c r="G71" t="s">
         <v>390</v>
@@ -3809,66 +3843,63 @@
       <c r="A72">
         <v>71</v>
       </c>
-      <c r="B72" t="s">
-        <v>38</v>
+      <c r="B72" s="6" t="s">
+        <v>333</v>
       </c>
       <c r="C72">
-        <v>457</v>
+        <v>471</v>
       </c>
       <c r="D72">
-        <v>503</v>
+        <v>471</v>
       </c>
       <c r="E72">
-        <v>460</v>
-      </c>
-      <c r="F72">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="G72" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A73">
         <v>72</v>
       </c>
-      <c r="B73" s="6" t="s">
-        <v>54</v>
+      <c r="B73" t="s">
+        <v>35</v>
       </c>
       <c r="C73">
-        <v>455</v>
+        <v>469</v>
       </c>
       <c r="D73">
-        <v>455</v>
+        <v>506</v>
       </c>
       <c r="E73">
-        <v>457</v>
+        <v>466</v>
+      </c>
+      <c r="F73">
+        <v>518</v>
       </c>
       <c r="G73" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A74">
         <v>73</v>
       </c>
-      <c r="B74" t="s">
-        <v>39</v>
+      <c r="B74" s="6" t="s">
+        <v>325</v>
       </c>
       <c r="C74">
-        <v>453</v>
+        <v>469</v>
       </c>
       <c r="D74">
-        <v>499</v>
+        <v>469</v>
       </c>
       <c r="E74">
-        <v>463</v>
-      </c>
-      <c r="F74">
-        <v>513</v>
+        <v>483</v>
       </c>
       <c r="G74" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.3">
@@ -3876,19 +3907,13 @@
         <v>74</v>
       </c>
       <c r="B75" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C75">
-        <v>452</v>
+        <v>466</v>
       </c>
       <c r="D75">
-        <v>502</v>
-      </c>
-      <c r="E75">
-        <v>458</v>
-      </c>
-      <c r="F75">
-        <v>515</v>
+        <v>507</v>
       </c>
       <c r="G75" t="s">
         <v>390</v>
@@ -3898,23 +3923,20 @@
       <c r="A76">
         <v>75</v>
       </c>
-      <c r="B76" t="s">
-        <v>41</v>
+      <c r="B76" s="6" t="s">
+        <v>335</v>
       </c>
       <c r="C76">
-        <v>451</v>
+        <v>463</v>
       </c>
       <c r="D76">
-        <v>503</v>
+        <v>463</v>
       </c>
       <c r="E76">
-        <v>457</v>
-      </c>
-      <c r="F76">
-        <v>515</v>
+        <v>485</v>
       </c>
       <c r="G76" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.3">
@@ -3922,13 +3944,13 @@
         <v>76</v>
       </c>
       <c r="B77" t="s">
-        <v>42</v>
+        <v>364</v>
       </c>
       <c r="C77">
-        <v>450</v>
+        <v>461</v>
       </c>
       <c r="D77">
-        <v>504</v>
+        <v>499</v>
       </c>
       <c r="G77" t="s">
         <v>390</v>
@@ -3939,19 +3961,13 @@
         <v>77</v>
       </c>
       <c r="B78" t="s">
-        <v>43</v>
+        <v>372</v>
       </c>
       <c r="C78">
-        <v>449</v>
+        <v>458</v>
       </c>
       <c r="D78">
-        <v>502</v>
-      </c>
-      <c r="E78">
-        <v>456</v>
-      </c>
-      <c r="F78">
-        <v>514</v>
+        <v>506</v>
       </c>
       <c r="G78" t="s">
         <v>390</v>
@@ -3962,16 +3978,16 @@
         <v>78</v>
       </c>
       <c r="B79" t="s">
-        <v>44</v>
+        <v>38</v>
       </c>
       <c r="C79">
-        <v>449</v>
+        <v>457</v>
       </c>
       <c r="D79">
-        <v>501</v>
+        <v>503</v>
       </c>
       <c r="E79">
-        <v>454</v>
+        <v>460</v>
       </c>
       <c r="F79">
         <v>515</v>
@@ -3984,23 +4000,20 @@
       <c r="A80">
         <v>79</v>
       </c>
-      <c r="B80" t="s">
-        <v>45</v>
+      <c r="B80" s="6" t="s">
+        <v>54</v>
       </c>
       <c r="C80">
-        <v>447</v>
+        <v>455</v>
       </c>
       <c r="D80">
-        <v>496</v>
+        <v>455</v>
       </c>
       <c r="E80">
-        <v>453</v>
-      </c>
-      <c r="F80">
-        <v>520</v>
+        <v>457</v>
       </c>
       <c r="G80" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.3">
@@ -4008,13 +4021,19 @@
         <v>80</v>
       </c>
       <c r="B81" t="s">
-        <v>329</v>
+        <v>39</v>
       </c>
       <c r="C81">
-        <v>447</v>
+        <v>453</v>
       </c>
       <c r="D81">
-        <v>447</v>
+        <v>499</v>
+      </c>
+      <c r="E81">
+        <v>463</v>
+      </c>
+      <c r="F81">
+        <v>513</v>
       </c>
       <c r="G81" t="s">
         <v>390</v>
@@ -4025,19 +4044,19 @@
         <v>81</v>
       </c>
       <c r="B82" t="s">
-        <v>361</v>
+        <v>40</v>
       </c>
       <c r="C82">
-        <v>446</v>
+        <v>452</v>
       </c>
       <c r="D82">
-        <v>496</v>
+        <v>502</v>
       </c>
       <c r="E82">
-        <v>453</v>
+        <v>458</v>
       </c>
       <c r="F82">
-        <v>511</v>
+        <v>515</v>
       </c>
       <c r="G82" t="s">
         <v>390</v>
@@ -4048,19 +4067,19 @@
         <v>82</v>
       </c>
       <c r="B83" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="C83">
-        <v>442</v>
+        <v>451</v>
       </c>
       <c r="D83">
-        <v>497</v>
+        <v>503</v>
       </c>
       <c r="E83">
-        <v>443</v>
+        <v>457</v>
       </c>
       <c r="F83">
-        <v>507</v>
+        <v>515</v>
       </c>
       <c r="G83" t="s">
         <v>390</v>
@@ -4070,20 +4089,17 @@
       <c r="A84">
         <v>83</v>
       </c>
-      <c r="B84" s="6" t="s">
-        <v>341</v>
+      <c r="B84" t="s">
+        <v>42</v>
       </c>
       <c r="C84">
-        <v>442</v>
+        <v>450</v>
       </c>
       <c r="D84">
-        <v>442</v>
-      </c>
-      <c r="E84">
-        <v>441</v>
+        <v>504</v>
       </c>
       <c r="G84" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.3">
@@ -4091,13 +4107,19 @@
         <v>84</v>
       </c>
       <c r="B85" t="s">
-        <v>382</v>
+        <v>43</v>
       </c>
       <c r="C85">
-        <v>438</v>
+        <v>449</v>
       </c>
       <c r="D85">
-        <v>491</v>
+        <v>502</v>
+      </c>
+      <c r="E85">
+        <v>456</v>
+      </c>
+      <c r="F85">
+        <v>514</v>
       </c>
       <c r="G85" t="s">
         <v>390</v>
@@ -4108,19 +4130,19 @@
         <v>85</v>
       </c>
       <c r="B86" t="s">
-        <v>328</v>
+        <v>44</v>
       </c>
       <c r="C86">
-        <v>423</v>
+        <v>449</v>
       </c>
       <c r="D86">
-        <v>500</v>
+        <v>501</v>
       </c>
       <c r="E86">
-        <v>500</v>
+        <v>454</v>
       </c>
       <c r="F86">
-        <v>500</v>
+        <v>515</v>
       </c>
       <c r="G86" t="s">
         <v>390</v>
@@ -4131,19 +4153,22 @@
         <v>86</v>
       </c>
       <c r="B87" t="s">
-        <v>342</v>
+        <v>45</v>
       </c>
       <c r="C87">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="D87">
-        <v>422</v>
+        <v>496</v>
       </c>
       <c r="E87">
-        <v>460</v>
+        <v>453</v>
+      </c>
+      <c r="F87">
+        <v>520</v>
       </c>
       <c r="G87" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.3">
@@ -4151,19 +4176,16 @@
         <v>87</v>
       </c>
       <c r="B88" t="s">
-        <v>344</v>
+        <v>329</v>
       </c>
       <c r="C88">
-        <v>422</v>
+        <v>447</v>
       </c>
       <c r="D88">
-        <v>422</v>
-      </c>
-      <c r="E88">
-        <v>414</v>
+        <v>447</v>
       </c>
       <c r="G88" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.3">
@@ -4171,19 +4193,22 @@
         <v>88</v>
       </c>
       <c r="B89" t="s">
-        <v>388</v>
+        <v>361</v>
       </c>
       <c r="C89">
-        <v>419</v>
+        <v>446</v>
       </c>
       <c r="D89">
-        <v>419</v>
+        <v>496</v>
       </c>
       <c r="E89">
-        <v>439</v>
+        <v>453</v>
+      </c>
+      <c r="F89">
+        <v>511</v>
       </c>
       <c r="G89" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.3">
@@ -4191,36 +4216,39 @@
         <v>89</v>
       </c>
       <c r="B90" t="s">
-        <v>324</v>
+        <v>46</v>
       </c>
       <c r="C90">
-        <v>417</v>
+        <v>442</v>
       </c>
       <c r="D90">
-        <v>417</v>
+        <v>497</v>
       </c>
       <c r="E90">
-        <v>451</v>
+        <v>443</v>
+      </c>
+      <c r="F90">
+        <v>507</v>
       </c>
       <c r="G90" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.3">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" t="s">
-        <v>348</v>
+      <c r="B91" s="6" t="s">
+        <v>341</v>
       </c>
       <c r="C91">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="D91">
-        <v>416</v>
+        <v>442</v>
       </c>
       <c r="E91">
-        <v>417</v>
+        <v>441</v>
       </c>
       <c r="G91" t="s">
         <v>389</v>
@@ -4231,19 +4259,16 @@
         <v>91</v>
       </c>
       <c r="B92" t="s">
-        <v>337</v>
+        <v>382</v>
       </c>
       <c r="C92">
-        <v>409</v>
+        <v>438</v>
       </c>
       <c r="D92">
-        <v>409</v>
-      </c>
-      <c r="E92">
-        <v>428</v>
+        <v>491</v>
       </c>
       <c r="G92" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.3">
@@ -4251,19 +4276,22 @@
         <v>92</v>
       </c>
       <c r="B93" t="s">
-        <v>339</v>
+        <v>328</v>
       </c>
       <c r="C93">
-        <v>406</v>
+        <v>423</v>
       </c>
       <c r="D93">
-        <v>406</v>
+        <v>500</v>
       </c>
       <c r="E93">
-        <v>457</v>
+        <v>500</v>
+      </c>
+      <c r="F93">
+        <v>500</v>
       </c>
       <c r="G93" t="s">
-        <v>389</v>
+        <v>390</v>
       </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.3">
@@ -4271,16 +4299,16 @@
         <v>93</v>
       </c>
       <c r="B94" t="s">
-        <v>383</v>
+        <v>342</v>
       </c>
       <c r="C94">
-        <v>397</v>
+        <v>422</v>
       </c>
       <c r="D94">
-        <v>397</v>
+        <v>422</v>
       </c>
       <c r="E94">
-        <v>423</v>
+        <v>460</v>
       </c>
       <c r="G94" t="s">
         <v>389</v>
@@ -4291,16 +4319,16 @@
         <v>94</v>
       </c>
       <c r="B95" t="s">
-        <v>352</v>
+        <v>344</v>
       </c>
       <c r="C95">
-        <v>393</v>
+        <v>422</v>
       </c>
       <c r="D95">
-        <v>393</v>
+        <v>422</v>
       </c>
       <c r="E95">
-        <v>431</v>
+        <v>414</v>
       </c>
       <c r="G95" t="s">
         <v>389</v>
@@ -4311,16 +4339,16 @@
         <v>95</v>
       </c>
       <c r="B96" t="s">
-        <v>358</v>
+        <v>388</v>
       </c>
       <c r="C96">
-        <v>393</v>
+        <v>419</v>
       </c>
       <c r="D96">
-        <v>393</v>
+        <v>419</v>
       </c>
       <c r="E96">
-        <v>394</v>
+        <v>439</v>
       </c>
       <c r="G96" t="s">
         <v>389</v>
@@ -4331,16 +4359,16 @@
         <v>96</v>
       </c>
       <c r="B97" t="s">
-        <v>366</v>
+        <v>324</v>
       </c>
       <c r="C97">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="D97">
-        <v>392</v>
+        <v>417</v>
       </c>
       <c r="E97">
-        <v>379</v>
+        <v>451</v>
       </c>
       <c r="G97" t="s">
         <v>389</v>
@@ -4351,16 +4379,16 @@
         <v>97</v>
       </c>
       <c r="B98" t="s">
-        <v>346</v>
+        <v>348</v>
       </c>
       <c r="C98">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="D98">
-        <v>380</v>
+        <v>416</v>
       </c>
       <c r="E98">
-        <v>429</v>
+        <v>417</v>
       </c>
       <c r="G98" t="s">
         <v>389</v>
@@ -4371,16 +4399,16 @@
         <v>98</v>
       </c>
       <c r="B99" t="s">
-        <v>326</v>
+        <v>337</v>
       </c>
       <c r="C99">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="D99">
-        <v>366</v>
+        <v>409</v>
       </c>
       <c r="E99">
-        <v>406</v>
+        <v>428</v>
       </c>
       <c r="G99" t="s">
         <v>389</v>
@@ -4391,16 +4419,16 @@
         <v>99</v>
       </c>
       <c r="B100" t="s">
-        <v>347</v>
+        <v>339</v>
       </c>
       <c r="C100">
-        <v>362</v>
+        <v>406</v>
       </c>
       <c r="D100">
-        <v>362</v>
+        <v>406</v>
       </c>
       <c r="E100">
-        <v>376</v>
+        <v>457</v>
       </c>
       <c r="G100" t="s">
         <v>389</v>
@@ -4411,16 +4439,16 @@
         <v>100</v>
       </c>
       <c r="B101" t="s">
-        <v>355</v>
+        <v>383</v>
       </c>
       <c r="C101">
-        <v>349</v>
+        <v>397</v>
       </c>
       <c r="D101">
-        <v>349</v>
+        <v>397</v>
       </c>
       <c r="E101">
-        <v>382</v>
+        <v>423</v>
       </c>
       <c r="G101" t="s">
         <v>389</v>
@@ -4431,16 +4459,16 @@
         <v>101</v>
       </c>
       <c r="B102" t="s">
-        <v>297</v>
+        <v>352</v>
       </c>
       <c r="C102">
-        <v>348</v>
+        <v>393</v>
       </c>
       <c r="D102">
-        <v>348</v>
+        <v>393</v>
       </c>
       <c r="E102">
-        <v>369</v>
+        <v>431</v>
       </c>
       <c r="G102" t="s">
         <v>389</v>
@@ -4451,16 +4479,16 @@
         <v>102</v>
       </c>
       <c r="B103" t="s">
-        <v>330</v>
+        <v>358</v>
       </c>
       <c r="C103">
-        <v>345</v>
+        <v>393</v>
       </c>
       <c r="D103">
-        <v>345</v>
+        <v>393</v>
       </c>
       <c r="E103">
-        <v>352</v>
+        <v>394</v>
       </c>
       <c r="G103" t="s">
         <v>389</v>
@@ -4471,16 +4499,16 @@
         <v>103</v>
       </c>
       <c r="B104" t="s">
-        <v>334</v>
+        <v>366</v>
       </c>
       <c r="C104">
-        <v>345</v>
+        <v>392</v>
       </c>
       <c r="D104">
-        <v>345</v>
+        <v>392</v>
       </c>
       <c r="E104">
-        <v>345</v>
+        <v>379</v>
       </c>
       <c r="G104" t="s">
         <v>389</v>
@@ -4491,16 +4519,16 @@
         <v>104</v>
       </c>
       <c r="B105" t="s">
-        <v>338</v>
+        <v>346</v>
       </c>
       <c r="C105">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="D105">
-        <v>345</v>
+        <v>380</v>
       </c>
       <c r="E105">
-        <v>366</v>
+        <v>429</v>
       </c>
       <c r="G105" t="s">
         <v>389</v>
@@ -4511,16 +4539,16 @@
         <v>105</v>
       </c>
       <c r="B106" t="s">
-        <v>340</v>
+        <v>326</v>
       </c>
       <c r="C106">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="D106">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="E106">
-        <v>347</v>
+        <v>406</v>
       </c>
       <c r="G106" t="s">
         <v>389</v>
@@ -4531,16 +4559,16 @@
         <v>106</v>
       </c>
       <c r="B107" t="s">
-        <v>343</v>
+        <v>347</v>
       </c>
       <c r="C107">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="D107">
-        <v>345</v>
+        <v>362</v>
       </c>
       <c r="E107">
-        <v>345</v>
+        <v>376</v>
       </c>
       <c r="G107" t="s">
         <v>389</v>
@@ -4551,16 +4579,16 @@
         <v>107</v>
       </c>
       <c r="B108" t="s">
-        <v>345</v>
+        <v>355</v>
       </c>
       <c r="C108">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="D108">
-        <v>345</v>
+        <v>349</v>
       </c>
       <c r="E108">
-        <v>345</v>
+        <v>382</v>
       </c>
       <c r="G108" t="s">
         <v>389</v>
@@ -4571,16 +4599,16 @@
         <v>108</v>
       </c>
       <c r="B109" t="s">
-        <v>349</v>
+        <v>297</v>
       </c>
       <c r="C109">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="D109">
-        <v>345</v>
+        <v>348</v>
       </c>
       <c r="E109">
-        <v>345</v>
+        <v>369</v>
       </c>
       <c r="G109" t="s">
         <v>389</v>
@@ -4591,7 +4619,7 @@
         <v>109</v>
       </c>
       <c r="B110" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="C110">
         <v>345</v>
@@ -4600,7 +4628,7 @@
         <v>345</v>
       </c>
       <c r="E110">
-        <v>377</v>
+        <v>352</v>
       </c>
       <c r="G110" t="s">
         <v>389</v>
@@ -4611,7 +4639,7 @@
         <v>110</v>
       </c>
       <c r="B111" t="s">
-        <v>354</v>
+        <v>334</v>
       </c>
       <c r="C111">
         <v>345</v>
@@ -4620,7 +4648,7 @@
         <v>345</v>
       </c>
       <c r="E111">
-        <v>365</v>
+        <v>345</v>
       </c>
       <c r="G111" t="s">
         <v>389</v>
@@ -4631,7 +4659,7 @@
         <v>111</v>
       </c>
       <c r="B112" t="s">
-        <v>356</v>
+        <v>338</v>
       </c>
       <c r="C112">
         <v>345</v>
@@ -4640,7 +4668,7 @@
         <v>345</v>
       </c>
       <c r="E112">
-        <v>345</v>
+        <v>366</v>
       </c>
       <c r="G112" t="s">
         <v>389</v>
@@ -4651,7 +4679,7 @@
         <v>112</v>
       </c>
       <c r="B113" t="s">
-        <v>357</v>
+        <v>340</v>
       </c>
       <c r="C113">
         <v>345</v>
@@ -4660,7 +4688,7 @@
         <v>345</v>
       </c>
       <c r="E113">
-        <v>345</v>
+        <v>347</v>
       </c>
       <c r="G113" t="s">
         <v>389</v>
@@ -4671,7 +4699,7 @@
         <v>113</v>
       </c>
       <c r="B114" t="s">
-        <v>250</v>
+        <v>343</v>
       </c>
       <c r="C114">
         <v>345</v>
@@ -4691,7 +4719,7 @@
         <v>114</v>
       </c>
       <c r="B115" t="s">
-        <v>359</v>
+        <v>345</v>
       </c>
       <c r="C115">
         <v>345</v>
@@ -4700,7 +4728,7 @@
         <v>345</v>
       </c>
       <c r="E115">
-        <v>364</v>
+        <v>345</v>
       </c>
       <c r="G115" t="s">
         <v>389</v>
@@ -4711,7 +4739,7 @@
         <v>115</v>
       </c>
       <c r="B116" t="s">
-        <v>262</v>
+        <v>349</v>
       </c>
       <c r="C116">
         <v>345</v>
@@ -4720,7 +4748,7 @@
         <v>345</v>
       </c>
       <c r="E116">
-        <v>412</v>
+        <v>345</v>
       </c>
       <c r="G116" t="s">
         <v>389</v>
@@ -4731,13 +4759,16 @@
         <v>116</v>
       </c>
       <c r="B117" t="s">
-        <v>360</v>
+        <v>353</v>
       </c>
       <c r="C117">
         <v>345</v>
       </c>
       <c r="D117">
         <v>345</v>
+      </c>
+      <c r="E117">
+        <v>377</v>
       </c>
       <c r="G117" t="s">
         <v>389</v>
@@ -4748,7 +4779,7 @@
         <v>117</v>
       </c>
       <c r="B118" t="s">
-        <v>365</v>
+        <v>354</v>
       </c>
       <c r="C118">
         <v>345</v>
@@ -4757,7 +4788,7 @@
         <v>345</v>
       </c>
       <c r="E118">
-        <v>368</v>
+        <v>365</v>
       </c>
       <c r="G118" t="s">
         <v>389</v>
@@ -4768,7 +4799,7 @@
         <v>118</v>
       </c>
       <c r="B119" t="s">
-        <v>367</v>
+        <v>356</v>
       </c>
       <c r="C119">
         <v>345</v>
@@ -4777,7 +4808,7 @@
         <v>345</v>
       </c>
       <c r="E119">
-        <v>370</v>
+        <v>345</v>
       </c>
       <c r="G119" t="s">
         <v>389</v>
@@ -4788,7 +4819,7 @@
         <v>119</v>
       </c>
       <c r="B120" t="s">
-        <v>368</v>
+        <v>357</v>
       </c>
       <c r="C120">
         <v>345</v>
@@ -4808,7 +4839,7 @@
         <v>120</v>
       </c>
       <c r="B121" t="s">
-        <v>369</v>
+        <v>250</v>
       </c>
       <c r="C121">
         <v>345</v>
@@ -4828,13 +4859,16 @@
         <v>121</v>
       </c>
       <c r="B122" t="s">
-        <v>370</v>
+        <v>359</v>
       </c>
       <c r="C122">
         <v>345</v>
       </c>
       <c r="D122">
         <v>345</v>
+      </c>
+      <c r="E122">
+        <v>364</v>
       </c>
       <c r="G122" t="s">
         <v>389</v>
@@ -4845,7 +4879,7 @@
         <v>122</v>
       </c>
       <c r="B123" t="s">
-        <v>371</v>
+        <v>262</v>
       </c>
       <c r="C123">
         <v>345</v>
@@ -4854,7 +4888,7 @@
         <v>345</v>
       </c>
       <c r="E123">
-        <v>345</v>
+        <v>412</v>
       </c>
       <c r="G123" t="s">
         <v>389</v>
@@ -4865,15 +4899,12 @@
         <v>123</v>
       </c>
       <c r="B124" t="s">
-        <v>373</v>
+        <v>360</v>
       </c>
       <c r="C124">
         <v>345</v>
       </c>
       <c r="D124">
-        <v>345</v>
-      </c>
-      <c r="E124">
         <v>345</v>
       </c>
       <c r="G124" t="s">
@@ -4885,7 +4916,7 @@
         <v>124</v>
       </c>
       <c r="B125" t="s">
-        <v>374</v>
+        <v>365</v>
       </c>
       <c r="C125">
         <v>345</v>
@@ -4894,7 +4925,7 @@
         <v>345</v>
       </c>
       <c r="E125">
-        <v>345</v>
+        <v>368</v>
       </c>
       <c r="G125" t="s">
         <v>389</v>
@@ -4905,7 +4936,7 @@
         <v>125</v>
       </c>
       <c r="B126" t="s">
-        <v>375</v>
+        <v>367</v>
       </c>
       <c r="C126">
         <v>345</v>
@@ -4914,7 +4945,7 @@
         <v>345</v>
       </c>
       <c r="E126">
-        <v>345</v>
+        <v>370</v>
       </c>
       <c r="G126" t="s">
         <v>389</v>
@@ -4925,7 +4956,7 @@
         <v>126</v>
       </c>
       <c r="B127" t="s">
-        <v>376</v>
+        <v>368</v>
       </c>
       <c r="C127">
         <v>345</v>
@@ -4945,7 +4976,7 @@
         <v>127</v>
       </c>
       <c r="B128" t="s">
-        <v>379</v>
+        <v>369</v>
       </c>
       <c r="C128">
         <v>345</v>
@@ -4954,18 +4985,18 @@
         <v>345</v>
       </c>
       <c r="E128">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="G128" t="s">
         <v>389</v>
       </c>
     </row>
-    <row r="129" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A129">
         <v>128</v>
       </c>
       <c r="B129" t="s">
-        <v>380</v>
+        <v>370</v>
       </c>
       <c r="C129">
         <v>345</v>
@@ -4977,9 +5008,163 @@
         <v>389</v>
       </c>
     </row>
+    <row r="130" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A130">
+        <v>129</v>
+      </c>
+      <c r="B130" t="s">
+        <v>371</v>
+      </c>
+      <c r="C130">
+        <v>345</v>
+      </c>
+      <c r="D130">
+        <v>345</v>
+      </c>
+      <c r="E130">
+        <v>345</v>
+      </c>
+      <c r="G130" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="131" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A131">
+        <v>130</v>
+      </c>
+      <c r="B131" t="s">
+        <v>373</v>
+      </c>
+      <c r="C131">
+        <v>345</v>
+      </c>
+      <c r="D131">
+        <v>345</v>
+      </c>
+      <c r="E131">
+        <v>345</v>
+      </c>
+      <c r="G131" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="132" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A132">
+        <v>131</v>
+      </c>
+      <c r="B132" t="s">
+        <v>374</v>
+      </c>
+      <c r="C132">
+        <v>345</v>
+      </c>
+      <c r="D132">
+        <v>345</v>
+      </c>
+      <c r="E132">
+        <v>345</v>
+      </c>
+      <c r="G132" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="133" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A133">
+        <v>132</v>
+      </c>
+      <c r="B133" t="s">
+        <v>375</v>
+      </c>
+      <c r="C133">
+        <v>345</v>
+      </c>
+      <c r="D133">
+        <v>345</v>
+      </c>
+      <c r="E133">
+        <v>345</v>
+      </c>
+      <c r="G133" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="134" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A134">
+        <v>133</v>
+      </c>
+      <c r="B134" t="s">
+        <v>376</v>
+      </c>
+      <c r="C134">
+        <v>345</v>
+      </c>
+      <c r="D134">
+        <v>345</v>
+      </c>
+      <c r="E134">
+        <v>345</v>
+      </c>
+      <c r="G134" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="135" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A135">
+        <v>134</v>
+      </c>
+      <c r="B135" t="s">
+        <v>379</v>
+      </c>
+      <c r="C135">
+        <v>345</v>
+      </c>
+      <c r="D135">
+        <v>345</v>
+      </c>
+      <c r="E135">
+        <v>346</v>
+      </c>
+      <c r="G135" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="136" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A136">
+        <v>135</v>
+      </c>
+      <c r="B136" t="s">
+        <v>380</v>
+      </c>
+      <c r="C136">
+        <v>345</v>
+      </c>
+      <c r="D136">
+        <v>345</v>
+      </c>
+      <c r="G136" t="s">
+        <v>389</v>
+      </c>
+    </row>
+    <row r="137" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A137">
+        <v>136</v>
+      </c>
+      <c r="B137" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="C137">
+        <v>345</v>
+      </c>
+      <c r="G137" t="s">
+        <v>389</v>
+      </c>
+      <c r="I137" t="s">
+        <v>538</v>
+      </c>
+    </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G129">
-    <sortCondition descending="1" ref="C2:C129"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G136">
+    <sortCondition descending="1" ref="C2:C136"/>
   </sortState>
   <phoneticPr fontId="7" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -4989,10 +5174,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D92D8248-3ED6-534E-99CB-591B80643DD4}">
-  <dimension ref="A1:D51"/>
+  <dimension ref="A1:F52"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+      <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -5000,9 +5185,10 @@
     <col min="1" max="1" width="51.453125" customWidth="1"/>
     <col min="2" max="2" width="17.81640625" customWidth="1"/>
     <col min="3" max="4" width="22" customWidth="1"/>
+    <col min="55" max="56" width="10.90625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>386</v>
       </c>
@@ -5015,8 +5201,11 @@
       <c r="D1" t="s">
         <v>389</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="6" t="s">
         <v>333</v>
       </c>
@@ -5030,7 +5219,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="6" t="s">
         <v>325</v>
       </c>
@@ -5044,7 +5233,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="6" t="s">
         <v>335</v>
       </c>
@@ -5058,7 +5247,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="6" t="s">
         <v>54</v>
       </c>
@@ -5072,7 +5261,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="6" t="s">
         <v>341</v>
       </c>
@@ -5086,7 +5275,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>342</v>
       </c>
@@ -5100,7 +5289,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>344</v>
       </c>
@@ -5114,7 +5303,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>388</v>
       </c>
@@ -5128,7 +5317,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>324</v>
       </c>
@@ -5142,7 +5331,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>348</v>
       </c>
@@ -5156,7 +5345,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>337</v>
       </c>
@@ -5170,7 +5359,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>339</v>
       </c>
@@ -5184,7 +5373,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>383</v>
       </c>
@@ -5198,7 +5387,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>352</v>
       </c>
@@ -5212,7 +5401,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>358</v>
       </c>
@@ -5668,7 +5857,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>380</v>
       </c>
@@ -5679,7 +5868,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>384</v>
       </c>
@@ -5690,7 +5879,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>385</v>
       </c>
@@ -5699,6 +5888,20 @@
       </c>
       <c r="D51" t="s">
         <v>389</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" ht="18" x14ac:dyDescent="0.3">
+      <c r="A52" s="10" t="s">
+        <v>545</v>
+      </c>
+      <c r="B52">
+        <v>345</v>
+      </c>
+      <c r="D52" t="s">
+        <v>389</v>
+      </c>
+      <c r="F52" t="s">
+        <v>538</v>
       </c>
     </row>
   </sheetData>
@@ -5711,11 +5914,1915 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C519E21-8049-4C82-83A8-D56D245627E0}">
+  <dimension ref="A1:I88"/>
+  <sheetViews>
+    <sheetView topLeftCell="A58" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B77" sqref="B77"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="39.453125" customWidth="1"/>
+    <col min="3" max="3" width="16.1796875" customWidth="1"/>
+    <col min="4" max="4" width="13.36328125" customWidth="1"/>
+    <col min="5" max="5" width="15.1796875" customWidth="1"/>
+    <col min="6" max="6" width="18.6328125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>387</v>
+      </c>
+      <c r="B1" t="s">
+        <v>532</v>
+      </c>
+      <c r="C1" t="s">
+        <v>392</v>
+      </c>
+      <c r="D1" t="s">
+        <v>393</v>
+      </c>
+      <c r="E1" t="s">
+        <v>394</v>
+      </c>
+      <c r="F1" t="s">
+        <v>395</v>
+      </c>
+      <c r="G1" t="s">
+        <v>389</v>
+      </c>
+      <c r="H1" t="s">
+        <v>536</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2">
+        <v>572</v>
+      </c>
+      <c r="D2">
+        <v>573</v>
+      </c>
+      <c r="E2">
+        <v>576</v>
+      </c>
+      <c r="F2">
+        <v>578</v>
+      </c>
+      <c r="G2" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>1</v>
+      </c>
+      <c r="C3">
+        <v>571</v>
+      </c>
+      <c r="D3">
+        <v>571</v>
+      </c>
+      <c r="E3">
+        <v>573</v>
+      </c>
+      <c r="F3">
+        <v>573</v>
+      </c>
+      <c r="G3" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>570</v>
+      </c>
+      <c r="D4">
+        <v>568</v>
+      </c>
+      <c r="E4">
+        <v>570</v>
+      </c>
+      <c r="F4">
+        <v>569</v>
+      </c>
+      <c r="G4" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>570</v>
+      </c>
+      <c r="D5">
+        <v>566</v>
+      </c>
+      <c r="E5">
+        <v>568</v>
+      </c>
+      <c r="F5">
+        <v>570</v>
+      </c>
+      <c r="G5" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>4</v>
+      </c>
+      <c r="C6">
+        <v>566</v>
+      </c>
+      <c r="D6">
+        <v>562</v>
+      </c>
+      <c r="E6">
+        <v>564</v>
+      </c>
+      <c r="F6">
+        <v>566</v>
+      </c>
+      <c r="G6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>5</v>
+      </c>
+      <c r="C7">
+        <v>564</v>
+      </c>
+      <c r="D7">
+        <v>564</v>
+      </c>
+      <c r="E7">
+        <v>561</v>
+      </c>
+      <c r="F7">
+        <v>566</v>
+      </c>
+      <c r="G7" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>6</v>
+      </c>
+      <c r="C8">
+        <v>563</v>
+      </c>
+      <c r="D8">
+        <v>560</v>
+      </c>
+      <c r="E8">
+        <v>560</v>
+      </c>
+      <c r="F8">
+        <v>562</v>
+      </c>
+      <c r="G8" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>332</v>
+      </c>
+      <c r="C9">
+        <v>562</v>
+      </c>
+      <c r="D9">
+        <v>558</v>
+      </c>
+      <c r="E9">
+        <v>558</v>
+      </c>
+      <c r="F9">
+        <v>559</v>
+      </c>
+      <c r="G9" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>562</v>
+      </c>
+      <c r="D10">
+        <v>557</v>
+      </c>
+      <c r="E10">
+        <v>557</v>
+      </c>
+      <c r="F10">
+        <v>559</v>
+      </c>
+      <c r="G10" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>8</v>
+      </c>
+      <c r="C11">
+        <v>559</v>
+      </c>
+      <c r="D11">
+        <v>554</v>
+      </c>
+      <c r="E11">
+        <v>553</v>
+      </c>
+      <c r="F11">
+        <v>557</v>
+      </c>
+      <c r="G11" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>317</v>
+      </c>
+      <c r="C12">
+        <v>558</v>
+      </c>
+      <c r="D12">
+        <v>554</v>
+      </c>
+      <c r="E12">
+        <v>546</v>
+      </c>
+      <c r="F12">
+        <v>552</v>
+      </c>
+      <c r="G12" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>556</v>
+      </c>
+      <c r="D13">
+        <v>550</v>
+      </c>
+      <c r="E13">
+        <v>548</v>
+      </c>
+      <c r="F13">
+        <v>552</v>
+      </c>
+      <c r="G13" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>331</v>
+      </c>
+      <c r="C14">
+        <v>556</v>
+      </c>
+      <c r="D14">
+        <v>550</v>
+      </c>
+      <c r="E14">
+        <v>542</v>
+      </c>
+      <c r="F14">
+        <v>542</v>
+      </c>
+      <c r="G14" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>10</v>
+      </c>
+      <c r="C15">
+        <v>553</v>
+      </c>
+      <c r="D15">
+        <v>550</v>
+      </c>
+      <c r="E15">
+        <v>539</v>
+      </c>
+      <c r="F15">
+        <v>551</v>
+      </c>
+      <c r="G15" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>11</v>
+      </c>
+      <c r="C16">
+        <v>552</v>
+      </c>
+      <c r="D16">
+        <v>546</v>
+      </c>
+      <c r="E16">
+        <v>545</v>
+      </c>
+      <c r="F16">
+        <v>553</v>
+      </c>
+      <c r="G16" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>314</v>
+      </c>
+      <c r="C17">
+        <v>552</v>
+      </c>
+      <c r="D17">
+        <v>548</v>
+      </c>
+      <c r="E17">
+        <v>540</v>
+      </c>
+      <c r="F17">
+        <v>547</v>
+      </c>
+      <c r="G17" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>312</v>
+      </c>
+      <c r="C18">
+        <v>551</v>
+      </c>
+      <c r="D18">
+        <v>549</v>
+      </c>
+      <c r="E18">
+        <v>531</v>
+      </c>
+      <c r="F18">
+        <v>546</v>
+      </c>
+      <c r="G18" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>12</v>
+      </c>
+      <c r="C19">
+        <v>549</v>
+      </c>
+      <c r="D19">
+        <v>545</v>
+      </c>
+      <c r="E19">
+        <v>529</v>
+      </c>
+      <c r="F19">
+        <v>538</v>
+      </c>
+      <c r="G19" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>13</v>
+      </c>
+      <c r="C20">
+        <v>548</v>
+      </c>
+      <c r="D20">
+        <v>545</v>
+      </c>
+      <c r="E20">
+        <v>529</v>
+      </c>
+      <c r="F20">
+        <v>538</v>
+      </c>
+      <c r="G20" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>378</v>
+      </c>
+      <c r="C21">
+        <v>546</v>
+      </c>
+      <c r="D21">
+        <v>546</v>
+      </c>
+      <c r="E21">
+        <v>531</v>
+      </c>
+      <c r="F21">
+        <v>544</v>
+      </c>
+      <c r="G21" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>318</v>
+      </c>
+      <c r="C22">
+        <v>546</v>
+      </c>
+      <c r="D22">
+        <v>543</v>
+      </c>
+      <c r="E22">
+        <v>526</v>
+      </c>
+      <c r="F22">
+        <v>536</v>
+      </c>
+      <c r="G22" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>316</v>
+      </c>
+      <c r="C23">
+        <v>544</v>
+      </c>
+      <c r="D23">
+        <v>540</v>
+      </c>
+      <c r="E23">
+        <v>535</v>
+      </c>
+      <c r="F23">
+        <v>535</v>
+      </c>
+      <c r="G23" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>313</v>
+      </c>
+      <c r="C24">
+        <v>542</v>
+      </c>
+      <c r="D24">
+        <v>534</v>
+      </c>
+      <c r="E24">
+        <v>529</v>
+      </c>
+      <c r="F24">
+        <v>537</v>
+      </c>
+      <c r="G24" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" t="s">
+        <v>14</v>
+      </c>
+      <c r="C25">
+        <v>542</v>
+      </c>
+      <c r="D25">
+        <v>538</v>
+      </c>
+      <c r="E25">
+        <v>524</v>
+      </c>
+      <c r="F25">
+        <v>538</v>
+      </c>
+      <c r="G25" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" t="s">
+        <v>15</v>
+      </c>
+      <c r="C26">
+        <v>540</v>
+      </c>
+      <c r="D26">
+        <v>540</v>
+      </c>
+      <c r="E26">
+        <v>529</v>
+      </c>
+      <c r="F26">
+        <v>540</v>
+      </c>
+      <c r="G26" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" t="s">
+        <v>16</v>
+      </c>
+      <c r="C27">
+        <v>538</v>
+      </c>
+      <c r="D27">
+        <v>533</v>
+      </c>
+      <c r="E27">
+        <v>522</v>
+      </c>
+      <c r="F27">
+        <v>537</v>
+      </c>
+      <c r="G27" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" t="s">
+        <v>350</v>
+      </c>
+      <c r="C28">
+        <v>537</v>
+      </c>
+      <c r="D28">
+        <v>536</v>
+      </c>
+      <c r="E28">
+        <v>517</v>
+      </c>
+      <c r="F28">
+        <v>536</v>
+      </c>
+      <c r="G28" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" t="s">
+        <v>17</v>
+      </c>
+      <c r="C29">
+        <v>536</v>
+      </c>
+      <c r="D29">
+        <v>532</v>
+      </c>
+      <c r="E29">
+        <v>518</v>
+      </c>
+      <c r="F29">
+        <v>535</v>
+      </c>
+      <c r="G29" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" t="s">
+        <v>18</v>
+      </c>
+      <c r="C30">
+        <v>535</v>
+      </c>
+      <c r="D30">
+        <v>533</v>
+      </c>
+      <c r="E30">
+        <v>513</v>
+      </c>
+      <c r="F30">
+        <v>535</v>
+      </c>
+      <c r="G30" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" t="s">
+        <v>19</v>
+      </c>
+      <c r="C31">
+        <v>534</v>
+      </c>
+      <c r="D31">
+        <v>526</v>
+      </c>
+      <c r="E31">
+        <v>512</v>
+      </c>
+      <c r="F31">
+        <v>528</v>
+      </c>
+      <c r="G31" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" t="s">
+        <v>319</v>
+      </c>
+      <c r="C32">
+        <v>533</v>
+      </c>
+      <c r="D32">
+        <v>530</v>
+      </c>
+      <c r="E32">
+        <v>503</v>
+      </c>
+      <c r="F32">
+        <v>526</v>
+      </c>
+      <c r="G32" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" t="s">
+        <v>362</v>
+      </c>
+      <c r="C33">
+        <v>529</v>
+      </c>
+      <c r="D33">
+        <v>533</v>
+      </c>
+      <c r="E33">
+        <v>503</v>
+      </c>
+      <c r="F33">
+        <v>530</v>
+      </c>
+      <c r="G33" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34">
+        <v>529</v>
+      </c>
+      <c r="D34">
+        <v>517</v>
+      </c>
+      <c r="G34" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>381</v>
+      </c>
+      <c r="C35">
+        <v>528</v>
+      </c>
+      <c r="D35">
+        <v>517</v>
+      </c>
+      <c r="E35">
+        <v>503</v>
+      </c>
+      <c r="F35">
+        <v>522</v>
+      </c>
+      <c r="G35" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>327</v>
+      </c>
+      <c r="C36">
+        <v>527</v>
+      </c>
+      <c r="D36">
+        <v>529</v>
+      </c>
+      <c r="E36">
+        <v>509</v>
+      </c>
+      <c r="F36">
+        <v>531</v>
+      </c>
+      <c r="G36" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" t="s">
+        <v>321</v>
+      </c>
+      <c r="C37">
+        <v>526</v>
+      </c>
+      <c r="D37">
+        <v>528</v>
+      </c>
+      <c r="E37">
+        <v>485</v>
+      </c>
+      <c r="F37">
+        <v>525</v>
+      </c>
+      <c r="G37" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" t="s">
+        <v>377</v>
+      </c>
+      <c r="C38">
+        <v>523</v>
+      </c>
+      <c r="D38">
+        <v>531</v>
+      </c>
+      <c r="E38">
+        <v>496</v>
+      </c>
+      <c r="F38">
+        <v>533</v>
+      </c>
+      <c r="G38" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" t="s">
+        <v>363</v>
+      </c>
+      <c r="C39">
+        <v>521</v>
+      </c>
+      <c r="D39">
+        <v>527</v>
+      </c>
+      <c r="E39">
+        <v>496</v>
+      </c>
+      <c r="F39">
+        <v>530</v>
+      </c>
+      <c r="G39" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" t="s">
+        <v>23</v>
+      </c>
+      <c r="C40">
+        <v>517</v>
+      </c>
+      <c r="D40">
+        <v>522</v>
+      </c>
+      <c r="G40" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" t="s">
+        <v>21</v>
+      </c>
+      <c r="C41">
+        <v>515</v>
+      </c>
+      <c r="D41">
+        <v>518</v>
+      </c>
+      <c r="G41" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="C42">
+        <v>515</v>
+      </c>
+      <c r="D42">
+        <v>518</v>
+      </c>
+      <c r="G42" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" t="s">
+        <v>31</v>
+      </c>
+      <c r="C43">
+        <v>515</v>
+      </c>
+      <c r="D43">
+        <v>518</v>
+      </c>
+      <c r="G43" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="6" t="s">
+        <v>37</v>
+      </c>
+      <c r="C44" s="6">
+        <v>515</v>
+      </c>
+      <c r="D44" s="6">
+        <v>518</v>
+      </c>
+      <c r="E44" s="6"/>
+      <c r="F44" s="6"/>
+      <c r="G44" s="6" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" t="s">
+        <v>47</v>
+      </c>
+      <c r="C45">
+        <v>515</v>
+      </c>
+      <c r="D45">
+        <v>518</v>
+      </c>
+      <c r="G45" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" t="s">
+        <v>535</v>
+      </c>
+      <c r="C46">
+        <v>515</v>
+      </c>
+      <c r="D46">
+        <v>518</v>
+      </c>
+      <c r="G46" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>49</v>
+      </c>
+      <c r="C47">
+        <v>515</v>
+      </c>
+      <c r="D47">
+        <v>518</v>
+      </c>
+      <c r="G47" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>315</v>
+      </c>
+      <c r="C48">
+        <v>514</v>
+      </c>
+      <c r="D48">
+        <v>521</v>
+      </c>
+      <c r="E48">
+        <v>503</v>
+      </c>
+      <c r="F48">
+        <v>527</v>
+      </c>
+      <c r="G48" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="49" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" t="s">
+        <v>22</v>
+      </c>
+      <c r="C49">
+        <v>507</v>
+      </c>
+      <c r="D49">
+        <v>511</v>
+      </c>
+      <c r="E49">
+        <v>497</v>
+      </c>
+      <c r="F49">
+        <v>524</v>
+      </c>
+      <c r="G49" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="50" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" t="s">
+        <v>24</v>
+      </c>
+      <c r="C50">
+        <v>506</v>
+      </c>
+      <c r="D50">
+        <v>510</v>
+      </c>
+      <c r="E50">
+        <v>488</v>
+      </c>
+      <c r="F50">
+        <v>521</v>
+      </c>
+      <c r="G50" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="51" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C51">
+        <v>505</v>
+      </c>
+      <c r="D51">
+        <v>522</v>
+      </c>
+      <c r="G51" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="52" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" t="s">
+        <v>323</v>
+      </c>
+      <c r="C52">
+        <v>500</v>
+      </c>
+      <c r="D52">
+        <v>509</v>
+      </c>
+      <c r="E52">
+        <v>494</v>
+      </c>
+      <c r="F52">
+        <v>519</v>
+      </c>
+      <c r="G52" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="53" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" t="s">
+        <v>537</v>
+      </c>
+      <c r="C53">
+        <v>500</v>
+      </c>
+      <c r="G53" t="s">
+        <v>390</v>
+      </c>
+      <c r="I53" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" t="s">
+        <v>539</v>
+      </c>
+      <c r="C54">
+        <v>500</v>
+      </c>
+      <c r="G54" t="s">
+        <v>390</v>
+      </c>
+      <c r="I54" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="55" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="10" t="s">
+        <v>540</v>
+      </c>
+      <c r="C55">
+        <v>500</v>
+      </c>
+      <c r="G55" t="s">
+        <v>390</v>
+      </c>
+      <c r="I55" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="56" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="10" t="s">
+        <v>541</v>
+      </c>
+      <c r="C56">
+        <v>500</v>
+      </c>
+      <c r="G56" t="s">
+        <v>390</v>
+      </c>
+      <c r="I56" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="57" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="10" t="s">
+        <v>542</v>
+      </c>
+      <c r="C57">
+        <v>500</v>
+      </c>
+      <c r="G57" t="s">
+        <v>390</v>
+      </c>
+      <c r="I57" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="58" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="10" t="s">
+        <v>543</v>
+      </c>
+      <c r="C58">
+        <v>500</v>
+      </c>
+      <c r="G58" t="s">
+        <v>390</v>
+      </c>
+      <c r="I58" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="59" spans="1:9" ht="18" x14ac:dyDescent="0.3">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" s="10" t="s">
+        <v>544</v>
+      </c>
+      <c r="C59">
+        <v>500</v>
+      </c>
+      <c r="G59" t="s">
+        <v>390</v>
+      </c>
+      <c r="I59" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="60" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>336</v>
+      </c>
+      <c r="C60">
+        <v>497</v>
+      </c>
+      <c r="D60">
+        <v>497</v>
+      </c>
+      <c r="E60">
+        <v>512</v>
+      </c>
+      <c r="F60">
+        <v>512</v>
+      </c>
+      <c r="G60" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="61" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" t="s">
+        <v>322</v>
+      </c>
+      <c r="C61">
+        <v>495</v>
+      </c>
+      <c r="D61">
+        <v>495</v>
+      </c>
+      <c r="E61">
+        <v>508</v>
+      </c>
+      <c r="F61">
+        <v>508</v>
+      </c>
+      <c r="G61" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" t="s">
+        <v>351</v>
+      </c>
+      <c r="C62">
+        <v>495</v>
+      </c>
+      <c r="D62">
+        <v>523</v>
+      </c>
+      <c r="G62" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="63" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" t="s">
+        <v>27</v>
+      </c>
+      <c r="C63">
+        <v>492</v>
+      </c>
+      <c r="D63">
+        <v>508</v>
+      </c>
+      <c r="E63">
+        <v>479</v>
+      </c>
+      <c r="F63">
+        <v>520</v>
+      </c>
+      <c r="G63" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="64" spans="1:9" s="6" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" t="s">
+        <v>320</v>
+      </c>
+      <c r="C64">
+        <v>489</v>
+      </c>
+      <c r="D64">
+        <v>516</v>
+      </c>
+      <c r="E64">
+        <v>484</v>
+      </c>
+      <c r="F64">
+        <v>523</v>
+      </c>
+      <c r="G64" t="s">
+        <v>390</v>
+      </c>
+      <c r="H64"/>
+      <c r="I64"/>
+    </row>
+    <row r="65" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" t="s">
+        <v>28</v>
+      </c>
+      <c r="C65">
+        <v>488</v>
+      </c>
+      <c r="D65">
+        <v>517</v>
+      </c>
+      <c r="E65">
+        <v>494</v>
+      </c>
+      <c r="F65">
+        <v>527</v>
+      </c>
+      <c r="G65" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="66" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" t="s">
+        <v>29</v>
+      </c>
+      <c r="C66">
+        <v>485</v>
+      </c>
+      <c r="D66">
+        <v>522</v>
+      </c>
+      <c r="E66">
+        <v>485</v>
+      </c>
+      <c r="F66">
+        <v>526</v>
+      </c>
+      <c r="G66" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="67" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" t="s">
+        <v>30</v>
+      </c>
+      <c r="C67">
+        <v>485</v>
+      </c>
+      <c r="D67">
+        <v>485</v>
+      </c>
+      <c r="G67" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="68" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" t="s">
+        <v>32</v>
+      </c>
+      <c r="C68">
+        <v>478</v>
+      </c>
+      <c r="D68">
+        <v>516</v>
+      </c>
+      <c r="G68" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="69" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" t="s">
+        <v>296</v>
+      </c>
+      <c r="C69">
+        <v>476</v>
+      </c>
+      <c r="D69">
+        <v>513</v>
+      </c>
+      <c r="E69">
+        <v>479</v>
+      </c>
+      <c r="F69">
+        <v>524</v>
+      </c>
+      <c r="G69" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="70" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" t="s">
+        <v>33</v>
+      </c>
+      <c r="C70">
+        <v>475</v>
+      </c>
+      <c r="D70">
+        <v>508</v>
+      </c>
+      <c r="E70">
+        <v>482</v>
+      </c>
+      <c r="F70">
+        <v>522</v>
+      </c>
+      <c r="G70" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="71" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>34</v>
+      </c>
+      <c r="C71">
+        <v>472</v>
+      </c>
+      <c r="D71">
+        <v>506</v>
+      </c>
+      <c r="E71">
+        <v>475</v>
+      </c>
+      <c r="F71">
+        <v>521</v>
+      </c>
+      <c r="G71" t="s">
+        <v>390</v>
+      </c>
+      <c r="H71" s="6"/>
+      <c r="I71" s="6"/>
+    </row>
+    <row r="72" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>35</v>
+      </c>
+      <c r="C72">
+        <v>469</v>
+      </c>
+      <c r="D72">
+        <v>506</v>
+      </c>
+      <c r="E72">
+        <v>466</v>
+      </c>
+      <c r="F72">
+        <v>518</v>
+      </c>
+      <c r="G72" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="73" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" t="s">
+        <v>36</v>
+      </c>
+      <c r="C73">
+        <v>466</v>
+      </c>
+      <c r="D73">
+        <v>507</v>
+      </c>
+      <c r="G73" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="74" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" t="s">
+        <v>364</v>
+      </c>
+      <c r="C74">
+        <v>461</v>
+      </c>
+      <c r="D74">
+        <v>499</v>
+      </c>
+      <c r="G74" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="75" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" t="s">
+        <v>372</v>
+      </c>
+      <c r="C75">
+        <v>458</v>
+      </c>
+      <c r="D75">
+        <v>506</v>
+      </c>
+      <c r="G75" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="76" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" t="s">
+        <v>38</v>
+      </c>
+      <c r="C76">
+        <v>457</v>
+      </c>
+      <c r="D76">
+        <v>503</v>
+      </c>
+      <c r="E76">
+        <v>460</v>
+      </c>
+      <c r="F76">
+        <v>515</v>
+      </c>
+      <c r="G76" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="77" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" t="s">
+        <v>39</v>
+      </c>
+      <c r="C77">
+        <v>453</v>
+      </c>
+      <c r="D77">
+        <v>499</v>
+      </c>
+      <c r="E77">
+        <v>463</v>
+      </c>
+      <c r="F77">
+        <v>513</v>
+      </c>
+      <c r="G77" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="78" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" t="s">
+        <v>40</v>
+      </c>
+      <c r="C78">
+        <v>452</v>
+      </c>
+      <c r="D78">
+        <v>502</v>
+      </c>
+      <c r="E78">
+        <v>458</v>
+      </c>
+      <c r="F78">
+        <v>515</v>
+      </c>
+      <c r="G78" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="79" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" t="s">
+        <v>41</v>
+      </c>
+      <c r="C79">
+        <v>451</v>
+      </c>
+      <c r="D79">
+        <v>503</v>
+      </c>
+      <c r="E79">
+        <v>457</v>
+      </c>
+      <c r="F79">
+        <v>515</v>
+      </c>
+      <c r="G79" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="80" spans="1:9" x14ac:dyDescent="0.3">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" t="s">
+        <v>42</v>
+      </c>
+      <c r="C80">
+        <v>450</v>
+      </c>
+      <c r="D80">
+        <v>504</v>
+      </c>
+      <c r="G80" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" t="s">
+        <v>43</v>
+      </c>
+      <c r="C81">
+        <v>449</v>
+      </c>
+      <c r="D81">
+        <v>502</v>
+      </c>
+      <c r="E81">
+        <v>456</v>
+      </c>
+      <c r="F81">
+        <v>514</v>
+      </c>
+      <c r="G81" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="82" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>44</v>
+      </c>
+      <c r="C82">
+        <v>449</v>
+      </c>
+      <c r="D82">
+        <v>501</v>
+      </c>
+      <c r="E82">
+        <v>454</v>
+      </c>
+      <c r="F82">
+        <v>515</v>
+      </c>
+      <c r="G82" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="83" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>45</v>
+      </c>
+      <c r="C83">
+        <v>447</v>
+      </c>
+      <c r="D83">
+        <v>496</v>
+      </c>
+      <c r="E83">
+        <v>453</v>
+      </c>
+      <c r="F83">
+        <v>520</v>
+      </c>
+      <c r="G83" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="84" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>329</v>
+      </c>
+      <c r="C84">
+        <v>447</v>
+      </c>
+      <c r="D84">
+        <v>447</v>
+      </c>
+      <c r="G84" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="85" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>361</v>
+      </c>
+      <c r="C85">
+        <v>446</v>
+      </c>
+      <c r="D85">
+        <v>496</v>
+      </c>
+      <c r="E85">
+        <v>453</v>
+      </c>
+      <c r="F85">
+        <v>511</v>
+      </c>
+      <c r="G85" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="86" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" t="s">
+        <v>46</v>
+      </c>
+      <c r="C86">
+        <v>442</v>
+      </c>
+      <c r="D86">
+        <v>497</v>
+      </c>
+      <c r="E86">
+        <v>443</v>
+      </c>
+      <c r="F86">
+        <v>507</v>
+      </c>
+      <c r="G86" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="87" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" t="s">
+        <v>382</v>
+      </c>
+      <c r="C87">
+        <v>438</v>
+      </c>
+      <c r="D87">
+        <v>491</v>
+      </c>
+      <c r="G87" t="s">
+        <v>390</v>
+      </c>
+    </row>
+    <row r="88" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" t="s">
+        <v>328</v>
+      </c>
+      <c r="C88">
+        <v>423</v>
+      </c>
+      <c r="D88">
+        <v>500</v>
+      </c>
+      <c r="E88">
+        <v>500</v>
+      </c>
+      <c r="F88">
+        <v>500</v>
+      </c>
+      <c r="G88" t="s">
+        <v>390</v>
+      </c>
+    </row>
+  </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G88">
+    <sortCondition descending="1" ref="C2:C88"/>
+  </sortState>
+  <phoneticPr fontId="7" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3DF0239E-BB67-C941-BD7D-71C4017FE7BC}">
   <dimension ref="A1:D442"/>
   <sheetViews>
-    <sheetView topLeftCell="A423" zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D437" sqref="D437"/>
+    <sheetView zoomScale="60" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -11389,1782 +13496,4 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C519E21-8049-4C82-83A8-D56D245627E0}">
-  <dimension ref="A1:G81"/>
-  <sheetViews>
-    <sheetView topLeftCell="A51" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="E61" sqref="E61"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="10.90625" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="39.453125" customWidth="1"/>
-    <col min="3" max="3" width="16.1796875" customWidth="1"/>
-    <col min="4" max="4" width="13.36328125" customWidth="1"/>
-    <col min="5" max="5" width="15.1796875" customWidth="1"/>
-    <col min="6" max="6" width="18.6328125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>387</v>
-      </c>
-      <c r="B1" t="s">
-        <v>532</v>
-      </c>
-      <c r="C1" t="s">
-        <v>392</v>
-      </c>
-      <c r="D1" t="s">
-        <v>393</v>
-      </c>
-      <c r="E1" t="s">
-        <v>394</v>
-      </c>
-      <c r="F1" t="s">
-        <v>395</v>
-      </c>
-      <c r="G1" t="s">
-        <v>389</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2">
-        <v>572</v>
-      </c>
-      <c r="D2">
-        <v>573</v>
-      </c>
-      <c r="E2">
-        <v>576</v>
-      </c>
-      <c r="F2">
-        <v>578</v>
-      </c>
-      <c r="G2" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
-        <v>1</v>
-      </c>
-      <c r="C3">
-        <v>571</v>
-      </c>
-      <c r="D3">
-        <v>571</v>
-      </c>
-      <c r="E3">
-        <v>573</v>
-      </c>
-      <c r="F3">
-        <v>573</v>
-      </c>
-      <c r="G3" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4">
-        <v>3</v>
-      </c>
-      <c r="B4" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4">
-        <v>570</v>
-      </c>
-      <c r="D4">
-        <v>568</v>
-      </c>
-      <c r="E4">
-        <v>570</v>
-      </c>
-      <c r="F4">
-        <v>569</v>
-      </c>
-      <c r="G4" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5">
-        <v>4</v>
-      </c>
-      <c r="B5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C5">
-        <v>570</v>
-      </c>
-      <c r="D5">
-        <v>566</v>
-      </c>
-      <c r="E5">
-        <v>568</v>
-      </c>
-      <c r="F5">
-        <v>570</v>
-      </c>
-      <c r="G5" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
-        <v>5</v>
-      </c>
-      <c r="B6" t="s">
-        <v>4</v>
-      </c>
-      <c r="C6">
-        <v>566</v>
-      </c>
-      <c r="D6">
-        <v>562</v>
-      </c>
-      <c r="E6">
-        <v>564</v>
-      </c>
-      <c r="F6">
-        <v>566</v>
-      </c>
-      <c r="G6" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7">
-        <v>6</v>
-      </c>
-      <c r="B7" t="s">
-        <v>5</v>
-      </c>
-      <c r="C7">
-        <v>564</v>
-      </c>
-      <c r="D7">
-        <v>564</v>
-      </c>
-      <c r="E7">
-        <v>561</v>
-      </c>
-      <c r="F7">
-        <v>566</v>
-      </c>
-      <c r="G7" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A8">
-        <v>7</v>
-      </c>
-      <c r="B8" t="s">
-        <v>6</v>
-      </c>
-      <c r="C8">
-        <v>563</v>
-      </c>
-      <c r="D8">
-        <v>560</v>
-      </c>
-      <c r="E8">
-        <v>560</v>
-      </c>
-      <c r="F8">
-        <v>562</v>
-      </c>
-      <c r="G8" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>332</v>
-      </c>
-      <c r="C9">
-        <v>562</v>
-      </c>
-      <c r="D9">
-        <v>558</v>
-      </c>
-      <c r="E9">
-        <v>558</v>
-      </c>
-      <c r="F9">
-        <v>559</v>
-      </c>
-      <c r="G9" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
-        <v>9</v>
-      </c>
-      <c r="B10" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10">
-        <v>562</v>
-      </c>
-      <c r="D10">
-        <v>557</v>
-      </c>
-      <c r="E10">
-        <v>557</v>
-      </c>
-      <c r="F10">
-        <v>559</v>
-      </c>
-      <c r="G10" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A11">
-        <v>10</v>
-      </c>
-      <c r="B11" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11">
-        <v>559</v>
-      </c>
-      <c r="D11">
-        <v>554</v>
-      </c>
-      <c r="E11">
-        <v>553</v>
-      </c>
-      <c r="F11">
-        <v>557</v>
-      </c>
-      <c r="G11" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A12">
-        <v>11</v>
-      </c>
-      <c r="B12" t="s">
-        <v>317</v>
-      </c>
-      <c r="C12">
-        <v>558</v>
-      </c>
-      <c r="D12">
-        <v>554</v>
-      </c>
-      <c r="E12">
-        <v>546</v>
-      </c>
-      <c r="F12">
-        <v>552</v>
-      </c>
-      <c r="G12" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A13">
-        <v>12</v>
-      </c>
-      <c r="B13" t="s">
-        <v>9</v>
-      </c>
-      <c r="C13">
-        <v>556</v>
-      </c>
-      <c r="D13">
-        <v>550</v>
-      </c>
-      <c r="E13">
-        <v>548</v>
-      </c>
-      <c r="F13">
-        <v>552</v>
-      </c>
-      <c r="G13" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14">
-        <v>13</v>
-      </c>
-      <c r="B14" t="s">
-        <v>331</v>
-      </c>
-      <c r="C14">
-        <v>556</v>
-      </c>
-      <c r="D14">
-        <v>550</v>
-      </c>
-      <c r="E14">
-        <v>542</v>
-      </c>
-      <c r="F14">
-        <v>542</v>
-      </c>
-      <c r="G14" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A15">
-        <v>14</v>
-      </c>
-      <c r="B15" t="s">
-        <v>10</v>
-      </c>
-      <c r="C15">
-        <v>553</v>
-      </c>
-      <c r="D15">
-        <v>550</v>
-      </c>
-      <c r="E15">
-        <v>539</v>
-      </c>
-      <c r="F15">
-        <v>551</v>
-      </c>
-      <c r="G15" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A16">
-        <v>15</v>
-      </c>
-      <c r="B16" t="s">
-        <v>11</v>
-      </c>
-      <c r="C16">
-        <v>552</v>
-      </c>
-      <c r="D16">
-        <v>546</v>
-      </c>
-      <c r="E16">
-        <v>545</v>
-      </c>
-      <c r="F16">
-        <v>553</v>
-      </c>
-      <c r="G16" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A17">
-        <v>16</v>
-      </c>
-      <c r="B17" t="s">
-        <v>314</v>
-      </c>
-      <c r="C17">
-        <v>552</v>
-      </c>
-      <c r="D17">
-        <v>548</v>
-      </c>
-      <c r="E17">
-        <v>540</v>
-      </c>
-      <c r="F17">
-        <v>547</v>
-      </c>
-      <c r="G17" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18">
-        <v>17</v>
-      </c>
-      <c r="B18" t="s">
-        <v>312</v>
-      </c>
-      <c r="C18">
-        <v>551</v>
-      </c>
-      <c r="D18">
-        <v>549</v>
-      </c>
-      <c r="E18">
-        <v>531</v>
-      </c>
-      <c r="F18">
-        <v>546</v>
-      </c>
-      <c r="G18" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A19">
-        <v>18</v>
-      </c>
-      <c r="B19" t="s">
-        <v>12</v>
-      </c>
-      <c r="C19">
-        <v>549</v>
-      </c>
-      <c r="D19">
-        <v>545</v>
-      </c>
-      <c r="E19">
-        <v>529</v>
-      </c>
-      <c r="F19">
-        <v>538</v>
-      </c>
-      <c r="G19" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A20">
-        <v>19</v>
-      </c>
-      <c r="B20" t="s">
-        <v>13</v>
-      </c>
-      <c r="C20">
-        <v>548</v>
-      </c>
-      <c r="D20">
-        <v>545</v>
-      </c>
-      <c r="E20">
-        <v>529</v>
-      </c>
-      <c r="F20">
-        <v>538</v>
-      </c>
-      <c r="G20" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A21">
-        <v>20</v>
-      </c>
-      <c r="B21" t="s">
-        <v>378</v>
-      </c>
-      <c r="C21">
-        <v>546</v>
-      </c>
-      <c r="D21">
-        <v>546</v>
-      </c>
-      <c r="E21">
-        <v>531</v>
-      </c>
-      <c r="F21">
-        <v>544</v>
-      </c>
-      <c r="G21" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22">
-        <v>21</v>
-      </c>
-      <c r="B22" t="s">
-        <v>318</v>
-      </c>
-      <c r="C22">
-        <v>546</v>
-      </c>
-      <c r="D22">
-        <v>543</v>
-      </c>
-      <c r="E22">
-        <v>526</v>
-      </c>
-      <c r="F22">
-        <v>536</v>
-      </c>
-      <c r="G22" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A23">
-        <v>22</v>
-      </c>
-      <c r="B23" t="s">
-        <v>316</v>
-      </c>
-      <c r="C23">
-        <v>544</v>
-      </c>
-      <c r="D23">
-        <v>540</v>
-      </c>
-      <c r="E23">
-        <v>535</v>
-      </c>
-      <c r="F23">
-        <v>535</v>
-      </c>
-      <c r="G23" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A24">
-        <v>23</v>
-      </c>
-      <c r="B24" t="s">
-        <v>313</v>
-      </c>
-      <c r="C24">
-        <v>542</v>
-      </c>
-      <c r="D24">
-        <v>534</v>
-      </c>
-      <c r="E24">
-        <v>529</v>
-      </c>
-      <c r="F24">
-        <v>537</v>
-      </c>
-      <c r="G24" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A25">
-        <v>24</v>
-      </c>
-      <c r="B25" t="s">
-        <v>14</v>
-      </c>
-      <c r="C25">
-        <v>542</v>
-      </c>
-      <c r="D25">
-        <v>538</v>
-      </c>
-      <c r="E25">
-        <v>524</v>
-      </c>
-      <c r="F25">
-        <v>538</v>
-      </c>
-      <c r="G25" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26">
-        <v>25</v>
-      </c>
-      <c r="B26" t="s">
-        <v>15</v>
-      </c>
-      <c r="C26">
-        <v>540</v>
-      </c>
-      <c r="D26">
-        <v>540</v>
-      </c>
-      <c r="E26">
-        <v>529</v>
-      </c>
-      <c r="F26">
-        <v>540</v>
-      </c>
-      <c r="G26" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A27">
-        <v>26</v>
-      </c>
-      <c r="B27" t="s">
-        <v>16</v>
-      </c>
-      <c r="C27">
-        <v>538</v>
-      </c>
-      <c r="D27">
-        <v>533</v>
-      </c>
-      <c r="E27">
-        <v>522</v>
-      </c>
-      <c r="F27">
-        <v>537</v>
-      </c>
-      <c r="G27" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A28">
-        <v>27</v>
-      </c>
-      <c r="B28" t="s">
-        <v>350</v>
-      </c>
-      <c r="C28">
-        <v>537</v>
-      </c>
-      <c r="D28">
-        <v>536</v>
-      </c>
-      <c r="E28">
-        <v>517</v>
-      </c>
-      <c r="F28">
-        <v>536</v>
-      </c>
-      <c r="G28" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A29">
-        <v>28</v>
-      </c>
-      <c r="B29" t="s">
-        <v>17</v>
-      </c>
-      <c r="C29">
-        <v>536</v>
-      </c>
-      <c r="D29">
-        <v>532</v>
-      </c>
-      <c r="E29">
-        <v>518</v>
-      </c>
-      <c r="F29">
-        <v>535</v>
-      </c>
-      <c r="G29" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30">
-        <v>29</v>
-      </c>
-      <c r="B30" t="s">
-        <v>18</v>
-      </c>
-      <c r="C30">
-        <v>535</v>
-      </c>
-      <c r="D30">
-        <v>533</v>
-      </c>
-      <c r="E30">
-        <v>513</v>
-      </c>
-      <c r="F30">
-        <v>535</v>
-      </c>
-      <c r="G30" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A31">
-        <v>30</v>
-      </c>
-      <c r="B31" t="s">
-        <v>19</v>
-      </c>
-      <c r="C31">
-        <v>534</v>
-      </c>
-      <c r="D31">
-        <v>526</v>
-      </c>
-      <c r="E31">
-        <v>512</v>
-      </c>
-      <c r="F31">
-        <v>528</v>
-      </c>
-      <c r="G31" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A32">
-        <v>31</v>
-      </c>
-      <c r="B32" t="s">
-        <v>319</v>
-      </c>
-      <c r="C32">
-        <v>533</v>
-      </c>
-      <c r="D32">
-        <v>530</v>
-      </c>
-      <c r="E32">
-        <v>503</v>
-      </c>
-      <c r="F32">
-        <v>526</v>
-      </c>
-      <c r="G32" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A33">
-        <v>32</v>
-      </c>
-      <c r="B33" t="s">
-        <v>362</v>
-      </c>
-      <c r="C33">
-        <v>529</v>
-      </c>
-      <c r="D33">
-        <v>533</v>
-      </c>
-      <c r="E33">
-        <v>503</v>
-      </c>
-      <c r="F33">
-        <v>530</v>
-      </c>
-      <c r="G33" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A34">
-        <v>33</v>
-      </c>
-      <c r="B34" t="s">
-        <v>20</v>
-      </c>
-      <c r="C34">
-        <v>529</v>
-      </c>
-      <c r="D34">
-        <v>517</v>
-      </c>
-      <c r="G34" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A35">
-        <v>34</v>
-      </c>
-      <c r="B35" t="s">
-        <v>381</v>
-      </c>
-      <c r="C35">
-        <v>528</v>
-      </c>
-      <c r="D35">
-        <v>517</v>
-      </c>
-      <c r="E35">
-        <v>503</v>
-      </c>
-      <c r="F35">
-        <v>522</v>
-      </c>
-      <c r="G35" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A36">
-        <v>35</v>
-      </c>
-      <c r="B36" t="s">
-        <v>327</v>
-      </c>
-      <c r="C36">
-        <v>527</v>
-      </c>
-      <c r="D36">
-        <v>529</v>
-      </c>
-      <c r="E36">
-        <v>509</v>
-      </c>
-      <c r="F36">
-        <v>531</v>
-      </c>
-      <c r="G36" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A37">
-        <v>36</v>
-      </c>
-      <c r="B37" t="s">
-        <v>321</v>
-      </c>
-      <c r="C37">
-        <v>526</v>
-      </c>
-      <c r="D37">
-        <v>528</v>
-      </c>
-      <c r="E37">
-        <v>485</v>
-      </c>
-      <c r="F37">
-        <v>525</v>
-      </c>
-      <c r="G37" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A38">
-        <v>37</v>
-      </c>
-      <c r="B38" t="s">
-        <v>377</v>
-      </c>
-      <c r="C38">
-        <v>523</v>
-      </c>
-      <c r="D38">
-        <v>531</v>
-      </c>
-      <c r="E38">
-        <v>496</v>
-      </c>
-      <c r="F38">
-        <v>533</v>
-      </c>
-      <c r="G38" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A39">
-        <v>38</v>
-      </c>
-      <c r="B39" t="s">
-        <v>363</v>
-      </c>
-      <c r="C39">
-        <v>521</v>
-      </c>
-      <c r="D39">
-        <v>527</v>
-      </c>
-      <c r="E39">
-        <v>496</v>
-      </c>
-      <c r="F39">
-        <v>530</v>
-      </c>
-      <c r="G39" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A40">
-        <v>39</v>
-      </c>
-      <c r="B40" t="s">
-        <v>23</v>
-      </c>
-      <c r="C40">
-        <v>517</v>
-      </c>
-      <c r="D40">
-        <v>522</v>
-      </c>
-      <c r="G40" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A41">
-        <v>40</v>
-      </c>
-      <c r="B41" t="s">
-        <v>21</v>
-      </c>
-      <c r="C41">
-        <v>515</v>
-      </c>
-      <c r="D41">
-        <v>518</v>
-      </c>
-      <c r="G41" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A42">
-        <v>41</v>
-      </c>
-      <c r="B42" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="C42">
-        <v>515</v>
-      </c>
-      <c r="D42">
-        <v>518</v>
-      </c>
-      <c r="G42" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A43">
-        <v>42</v>
-      </c>
-      <c r="B43" t="s">
-        <v>31</v>
-      </c>
-      <c r="C43">
-        <v>515</v>
-      </c>
-      <c r="D43">
-        <v>518</v>
-      </c>
-      <c r="G43" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A44">
-        <v>43</v>
-      </c>
-      <c r="B44" s="6" t="s">
-        <v>37</v>
-      </c>
-      <c r="C44" s="6">
-        <v>515</v>
-      </c>
-      <c r="D44" s="6">
-        <v>518</v>
-      </c>
-      <c r="E44" s="6"/>
-      <c r="F44" s="6"/>
-      <c r="G44" s="6" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A45">
-        <v>44</v>
-      </c>
-      <c r="B45" t="s">
-        <v>47</v>
-      </c>
-      <c r="C45">
-        <v>515</v>
-      </c>
-      <c r="D45">
-        <v>518</v>
-      </c>
-      <c r="G45" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A46">
-        <v>45</v>
-      </c>
-      <c r="B46" t="s">
-        <v>535</v>
-      </c>
-      <c r="C46">
-        <v>515</v>
-      </c>
-      <c r="D46">
-        <v>518</v>
-      </c>
-      <c r="G46" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A47">
-        <v>46</v>
-      </c>
-      <c r="B47" t="s">
-        <v>49</v>
-      </c>
-      <c r="C47">
-        <v>515</v>
-      </c>
-      <c r="D47">
-        <v>518</v>
-      </c>
-      <c r="G47" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A48">
-        <v>47</v>
-      </c>
-      <c r="B48" t="s">
-        <v>315</v>
-      </c>
-      <c r="C48">
-        <v>514</v>
-      </c>
-      <c r="D48">
-        <v>521</v>
-      </c>
-      <c r="E48">
-        <v>503</v>
-      </c>
-      <c r="F48">
-        <v>527</v>
-      </c>
-      <c r="G48" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A49">
-        <v>48</v>
-      </c>
-      <c r="B49" t="s">
-        <v>22</v>
-      </c>
-      <c r="C49">
-        <v>507</v>
-      </c>
-      <c r="D49">
-        <v>511</v>
-      </c>
-      <c r="E49">
-        <v>497</v>
-      </c>
-      <c r="F49">
-        <v>524</v>
-      </c>
-      <c r="G49" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A50">
-        <v>49</v>
-      </c>
-      <c r="B50" t="s">
-        <v>24</v>
-      </c>
-      <c r="C50">
-        <v>506</v>
-      </c>
-      <c r="D50">
-        <v>510</v>
-      </c>
-      <c r="E50">
-        <v>488</v>
-      </c>
-      <c r="F50">
-        <v>521</v>
-      </c>
-      <c r="G50" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A51">
-        <v>50</v>
-      </c>
-      <c r="B51" t="s">
-        <v>25</v>
-      </c>
-      <c r="C51">
-        <v>505</v>
-      </c>
-      <c r="D51">
-        <v>522</v>
-      </c>
-      <c r="G51" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A52">
-        <v>51</v>
-      </c>
-      <c r="B52" t="s">
-        <v>323</v>
-      </c>
-      <c r="C52">
-        <v>500</v>
-      </c>
-      <c r="D52">
-        <v>509</v>
-      </c>
-      <c r="E52">
-        <v>494</v>
-      </c>
-      <c r="F52">
-        <v>519</v>
-      </c>
-      <c r="G52" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A53">
-        <v>52</v>
-      </c>
-      <c r="B53" t="s">
-        <v>336</v>
-      </c>
-      <c r="C53">
-        <v>497</v>
-      </c>
-      <c r="D53">
-        <v>497</v>
-      </c>
-      <c r="E53">
-        <v>512</v>
-      </c>
-      <c r="F53">
-        <v>512</v>
-      </c>
-      <c r="G53" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A54">
-        <v>53</v>
-      </c>
-      <c r="B54" t="s">
-        <v>322</v>
-      </c>
-      <c r="C54">
-        <v>495</v>
-      </c>
-      <c r="D54">
-        <v>495</v>
-      </c>
-      <c r="E54">
-        <v>508</v>
-      </c>
-      <c r="F54">
-        <v>508</v>
-      </c>
-      <c r="G54" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A55">
-        <v>54</v>
-      </c>
-      <c r="B55" t="s">
-        <v>351</v>
-      </c>
-      <c r="C55">
-        <v>495</v>
-      </c>
-      <c r="D55">
-        <v>523</v>
-      </c>
-      <c r="G55" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A56">
-        <v>55</v>
-      </c>
-      <c r="B56" t="s">
-        <v>27</v>
-      </c>
-      <c r="C56">
-        <v>492</v>
-      </c>
-      <c r="D56">
-        <v>508</v>
-      </c>
-      <c r="E56">
-        <v>479</v>
-      </c>
-      <c r="F56">
-        <v>520</v>
-      </c>
-      <c r="G56" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A57">
-        <v>56</v>
-      </c>
-      <c r="B57" t="s">
-        <v>320</v>
-      </c>
-      <c r="C57">
-        <v>489</v>
-      </c>
-      <c r="D57">
-        <v>516</v>
-      </c>
-      <c r="E57">
-        <v>484</v>
-      </c>
-      <c r="F57">
-        <v>523</v>
-      </c>
-      <c r="G57" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A58">
-        <v>57</v>
-      </c>
-      <c r="B58" t="s">
-        <v>28</v>
-      </c>
-      <c r="C58">
-        <v>488</v>
-      </c>
-      <c r="D58">
-        <v>517</v>
-      </c>
-      <c r="E58">
-        <v>494</v>
-      </c>
-      <c r="F58">
-        <v>527</v>
-      </c>
-      <c r="G58" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A59">
-        <v>58</v>
-      </c>
-      <c r="B59" t="s">
-        <v>29</v>
-      </c>
-      <c r="C59">
-        <v>485</v>
-      </c>
-      <c r="D59">
-        <v>522</v>
-      </c>
-      <c r="E59">
-        <v>485</v>
-      </c>
-      <c r="F59">
-        <v>526</v>
-      </c>
-      <c r="G59" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A60">
-        <v>59</v>
-      </c>
-      <c r="B60" t="s">
-        <v>30</v>
-      </c>
-      <c r="C60">
-        <v>485</v>
-      </c>
-      <c r="D60">
-        <v>485</v>
-      </c>
-      <c r="G60" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A61">
-        <v>60</v>
-      </c>
-      <c r="B61" t="s">
-        <v>32</v>
-      </c>
-      <c r="C61">
-        <v>478</v>
-      </c>
-      <c r="D61">
-        <v>516</v>
-      </c>
-      <c r="G61" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A62">
-        <v>61</v>
-      </c>
-      <c r="B62" t="s">
-        <v>296</v>
-      </c>
-      <c r="C62">
-        <v>476</v>
-      </c>
-      <c r="D62">
-        <v>513</v>
-      </c>
-      <c r="E62">
-        <v>479</v>
-      </c>
-      <c r="F62">
-        <v>524</v>
-      </c>
-      <c r="G62" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A63">
-        <v>62</v>
-      </c>
-      <c r="B63" t="s">
-        <v>33</v>
-      </c>
-      <c r="C63">
-        <v>475</v>
-      </c>
-      <c r="D63">
-        <v>508</v>
-      </c>
-      <c r="E63">
-        <v>482</v>
-      </c>
-      <c r="F63">
-        <v>522</v>
-      </c>
-      <c r="G63" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="64" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.3">
-      <c r="A64">
-        <v>63</v>
-      </c>
-      <c r="B64" t="s">
-        <v>34</v>
-      </c>
-      <c r="C64">
-        <v>472</v>
-      </c>
-      <c r="D64">
-        <v>506</v>
-      </c>
-      <c r="E64">
-        <v>475</v>
-      </c>
-      <c r="F64">
-        <v>521</v>
-      </c>
-      <c r="G64" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A65">
-        <v>64</v>
-      </c>
-      <c r="B65" t="s">
-        <v>35</v>
-      </c>
-      <c r="C65">
-        <v>469</v>
-      </c>
-      <c r="D65">
-        <v>506</v>
-      </c>
-      <c r="E65">
-        <v>466</v>
-      </c>
-      <c r="F65">
-        <v>518</v>
-      </c>
-      <c r="G65" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A66">
-        <v>65</v>
-      </c>
-      <c r="B66" t="s">
-        <v>36</v>
-      </c>
-      <c r="C66">
-        <v>466</v>
-      </c>
-      <c r="D66">
-        <v>507</v>
-      </c>
-      <c r="G66" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A67">
-        <v>66</v>
-      </c>
-      <c r="B67" t="s">
-        <v>364</v>
-      </c>
-      <c r="C67">
-        <v>461</v>
-      </c>
-      <c r="D67">
-        <v>499</v>
-      </c>
-      <c r="G67" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A68">
-        <v>67</v>
-      </c>
-      <c r="B68" t="s">
-        <v>372</v>
-      </c>
-      <c r="C68">
-        <v>458</v>
-      </c>
-      <c r="D68">
-        <v>506</v>
-      </c>
-      <c r="G68" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A69">
-        <v>68</v>
-      </c>
-      <c r="B69" t="s">
-        <v>38</v>
-      </c>
-      <c r="C69">
-        <v>457</v>
-      </c>
-      <c r="D69">
-        <v>503</v>
-      </c>
-      <c r="E69">
-        <v>460</v>
-      </c>
-      <c r="F69">
-        <v>515</v>
-      </c>
-      <c r="G69" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A70">
-        <v>69</v>
-      </c>
-      <c r="B70" t="s">
-        <v>39</v>
-      </c>
-      <c r="C70">
-        <v>453</v>
-      </c>
-      <c r="D70">
-        <v>499</v>
-      </c>
-      <c r="E70">
-        <v>463</v>
-      </c>
-      <c r="F70">
-        <v>513</v>
-      </c>
-      <c r="G70" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A71">
-        <v>70</v>
-      </c>
-      <c r="B71" t="s">
-        <v>40</v>
-      </c>
-      <c r="C71">
-        <v>452</v>
-      </c>
-      <c r="D71">
-        <v>502</v>
-      </c>
-      <c r="E71">
-        <v>458</v>
-      </c>
-      <c r="F71">
-        <v>515</v>
-      </c>
-      <c r="G71" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="72" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A72">
-        <v>71</v>
-      </c>
-      <c r="B72" t="s">
-        <v>41</v>
-      </c>
-      <c r="C72">
-        <v>451</v>
-      </c>
-      <c r="D72">
-        <v>503</v>
-      </c>
-      <c r="E72">
-        <v>457</v>
-      </c>
-      <c r="F72">
-        <v>515</v>
-      </c>
-      <c r="G72" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="73" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A73">
-        <v>72</v>
-      </c>
-      <c r="B73" t="s">
-        <v>42</v>
-      </c>
-      <c r="C73">
-        <v>450</v>
-      </c>
-      <c r="D73">
-        <v>504</v>
-      </c>
-      <c r="G73" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="74" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A74">
-        <v>73</v>
-      </c>
-      <c r="B74" t="s">
-        <v>43</v>
-      </c>
-      <c r="C74">
-        <v>449</v>
-      </c>
-      <c r="D74">
-        <v>502</v>
-      </c>
-      <c r="E74">
-        <v>456</v>
-      </c>
-      <c r="F74">
-        <v>514</v>
-      </c>
-      <c r="G74" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="75" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A75">
-        <v>74</v>
-      </c>
-      <c r="B75" t="s">
-        <v>44</v>
-      </c>
-      <c r="C75">
-        <v>449</v>
-      </c>
-      <c r="D75">
-        <v>501</v>
-      </c>
-      <c r="E75">
-        <v>454</v>
-      </c>
-      <c r="F75">
-        <v>515</v>
-      </c>
-      <c r="G75" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="76" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A76">
-        <v>75</v>
-      </c>
-      <c r="B76" t="s">
-        <v>45</v>
-      </c>
-      <c r="C76">
-        <v>447</v>
-      </c>
-      <c r="D76">
-        <v>496</v>
-      </c>
-      <c r="E76">
-        <v>453</v>
-      </c>
-      <c r="F76">
-        <v>520</v>
-      </c>
-      <c r="G76" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="77" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A77">
-        <v>76</v>
-      </c>
-      <c r="B77" t="s">
-        <v>329</v>
-      </c>
-      <c r="C77">
-        <v>447</v>
-      </c>
-      <c r="D77">
-        <v>447</v>
-      </c>
-      <c r="G77" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="78" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A78">
-        <v>77</v>
-      </c>
-      <c r="B78" t="s">
-        <v>361</v>
-      </c>
-      <c r="C78">
-        <v>446</v>
-      </c>
-      <c r="D78">
-        <v>496</v>
-      </c>
-      <c r="E78">
-        <v>453</v>
-      </c>
-      <c r="F78">
-        <v>511</v>
-      </c>
-      <c r="G78" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="79" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A79">
-        <v>78</v>
-      </c>
-      <c r="B79" t="s">
-        <v>46</v>
-      </c>
-      <c r="C79">
-        <v>442</v>
-      </c>
-      <c r="D79">
-        <v>497</v>
-      </c>
-      <c r="E79">
-        <v>443</v>
-      </c>
-      <c r="F79">
-        <v>507</v>
-      </c>
-      <c r="G79" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="80" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A80">
-        <v>79</v>
-      </c>
-      <c r="B80" t="s">
-        <v>382</v>
-      </c>
-      <c r="C80">
-        <v>438</v>
-      </c>
-      <c r="D80">
-        <v>491</v>
-      </c>
-      <c r="G80" t="s">
-        <v>390</v>
-      </c>
-    </row>
-    <row r="81" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A81">
-        <v>80</v>
-      </c>
-      <c r="B81" t="s">
-        <v>328</v>
-      </c>
-      <c r="C81">
-        <v>423</v>
-      </c>
-      <c r="D81">
-        <v>500</v>
-      </c>
-      <c r="E81">
-        <v>500</v>
-      </c>
-      <c r="F81">
-        <v>500</v>
-      </c>
-      <c r="G81" t="s">
-        <v>390</v>
-      </c>
-    </row>
-  </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:G81">
-    <sortCondition descending="1" ref="C2:C81"/>
-  </sortState>
-  <phoneticPr fontId="7" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-</worksheet>
 </file>